--- a/Barbie.xlsx
+++ b/Barbie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE238170-CB31-7D46-A5F0-2F94DBFF7A57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DC9F0-2919-0344-9207-AA42899915E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="290">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -1126,6 +1126,9 @@
   </si>
   <si>
     <t>Charger, you take -10 to skill and gain a +10 DMG for Movement ft</t>
+  </si>
+  <si>
+    <t>Stat Rolls</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1864,28 +1867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,8 +1882,38 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1921,14 +1933,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1948,13 +1954,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7073,7 +7079,7 @@
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="232" totalsRowDxfId="231">
-      <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 5</totalsRowFormula>
+      <totalsRowFormula>COUNTIF(Table2[Expert],"Yes") * 5</totalsRowFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="230" totalsRowDxfId="229">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
@@ -7650,7 +7656,7 @@
   <dimension ref="B1:BG291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16"/>
+      <selection activeCell="AE36" sqref="AE36:AW40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7664,116 +7670,116 @@
   <sheetData>
     <row r="1" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="103" t="str">
+      <c r="B2" s="106" t="str">
         <f>CHARACTER_NAME</f>
         <v>Barbie</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="S2" s="98" t="str">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="S2" s="101" t="str">
         <f>CHARACTER_RACE</f>
         <v>Indir</v>
       </c>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AB2" s="98" t="str">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AB2" s="101" t="str">
         <f>CHARACTER_PROFESSION</f>
         <v>Barbarian</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="98"/>
-      <c r="AI2" s="98"/>
-      <c r="AN2" s="104">
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="101"/>
+      <c r="AN2" s="114">
         <f>TOTAL_XP</f>
         <v>80</v>
       </c>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AS2" s="104">
+      <c r="AO2" s="114"/>
+      <c r="AP2" s="114"/>
+      <c r="AQ2" s="114"/>
+      <c r="AS2" s="114">
         <f>LVL</f>
         <v>5</v>
       </c>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="114"/>
       <c r="BE2" s="47"/>
     </row>
     <row r="3" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="103"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="99"/>
-      <c r="AD3" s="99"/>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AN3" s="104"/>
-      <c r="AO3" s="104"/>
-      <c r="AP3" s="104"/>
-      <c r="AQ3" s="104"/>
-      <c r="AS3" s="104"/>
-      <c r="AT3" s="104"/>
-      <c r="AU3" s="104"/>
-      <c r="AV3" s="104"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="106"/>
+      <c r="O3" s="106"/>
+      <c r="S3" s="102"/>
+      <c r="T3" s="102"/>
+      <c r="U3" s="102"/>
+      <c r="V3" s="102"/>
+      <c r="W3" s="102"/>
+      <c r="X3" s="102"/>
+      <c r="Y3" s="102"/>
+      <c r="Z3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
     </row>
     <row r="4" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
+      <c r="N4" s="106"/>
+      <c r="O4" s="106"/>
       <c r="S4" s="36" t="s">
         <v>50</v>
       </c>
@@ -7786,22 +7792,22 @@
       <c r="AK4" s="31"/>
       <c r="AL4" s="31"/>
       <c r="AM4" s="31"/>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
+      <c r="AN4" s="114"/>
+      <c r="AO4" s="114"/>
+      <c r="AP4" s="114"/>
+      <c r="AQ4" s="114"/>
       <c r="AR4" s="31"/>
-      <c r="AS4" s="104"/>
-      <c r="AT4" s="104"/>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
+      <c r="AS4" s="114"/>
+      <c r="AT4" s="114"/>
+      <c r="AU4" s="114"/>
+      <c r="AV4" s="114"/>
     </row>
     <row r="5" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
       <c r="D5" s="32"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
       <c r="Z5" s="30"/>
       <c r="AB5" s="31"/>
       <c r="AC5" s="31"/>
@@ -7815,31 +7821,31 @@
       <c r="AK5" s="31"/>
       <c r="AL5" s="31"/>
       <c r="AM5" s="31"/>
-      <c r="AN5" s="105"/>
-      <c r="AO5" s="105"/>
-      <c r="AP5" s="105"/>
-      <c r="AQ5" s="105"/>
+      <c r="AN5" s="115"/>
+      <c r="AO5" s="115"/>
+      <c r="AP5" s="115"/>
+      <c r="AQ5" s="115"/>
       <c r="AR5" s="31"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="105"/>
-      <c r="AU5" s="105"/>
-      <c r="AV5" s="105"/>
+      <c r="AS5" s="115"/>
+      <c r="AT5" s="115"/>
+      <c r="AU5" s="115"/>
+      <c r="AV5" s="115"/>
     </row>
     <row r="6" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="32"/>
-      <c r="AN6" s="106" t="s">
+      <c r="AN6" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="AO6" s="106"/>
-      <c r="AP6" s="106"/>
-      <c r="AQ6" s="106"/>
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
       <c r="AR6" s="31"/>
-      <c r="AS6" s="106" t="s">
+      <c r="AS6" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="AT6" s="106"/>
-      <c r="AU6" s="106"/>
-      <c r="AV6" s="106"/>
+      <c r="AT6" s="116"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
     </row>
     <row r="7" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F7" s="32"/>
@@ -7850,63 +7856,63 @@
       <c r="AT7" s="31"/>
     </row>
     <row r="8" spans="2:57" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="89"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="95"/>
       <c r="F8" s="32"/>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
-      <c r="M8" s="100" t="s">
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="105"/>
+      <c r="M8" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="101"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="102"/>
-      <c r="R8" s="100" t="s">
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="R8" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
-      <c r="U8" s="102"/>
-      <c r="W8" s="100" t="s">
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="105"/>
+      <c r="W8" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="102"/>
-      <c r="AB8" s="100" t="s">
+      <c r="X8" s="104"/>
+      <c r="Y8" s="104"/>
+      <c r="Z8" s="105"/>
+      <c r="AB8" s="103" t="s">
         <v>118</v>
       </c>
-      <c r="AC8" s="101"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="102"/>
+      <c r="AC8" s="104"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
       <c r="AF8" s="31"/>
-      <c r="AG8" s="100" t="s">
+      <c r="AG8" s="103" t="s">
         <v>206</v>
       </c>
-      <c r="AH8" s="101"/>
-      <c r="AI8" s="101"/>
-      <c r="AJ8" s="102"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="104"/>
+      <c r="AJ8" s="105"/>
       <c r="AK8" s="31"/>
-      <c r="AL8" s="100" t="s">
+      <c r="AL8" s="103" t="s">
         <v>216</v>
       </c>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="101"/>
-      <c r="AO8" s="102"/>
-      <c r="AQ8" s="100" t="s">
+      <c r="AM8" s="104"/>
+      <c r="AN8" s="104"/>
+      <c r="AO8" s="105"/>
+      <c r="AQ8" s="103" t="s">
         <v>210</v>
       </c>
-      <c r="AR8" s="101"/>
-      <c r="AS8" s="101"/>
-      <c r="AT8" s="102"/>
+      <c r="AR8" s="104"/>
+      <c r="AS8" s="104"/>
+      <c r="AT8" s="105"/>
     </row>
     <row r="9" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="90">
@@ -7917,64 +7923,64 @@
       <c r="D9" s="91"/>
       <c r="E9" s="92"/>
       <c r="F9" s="32"/>
-      <c r="H9" s="107">
+      <c r="H9" s="108">
         <f>CHARACTER_HP</f>
         <v>145</v>
       </c>
-      <c r="I9" s="108"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
-      <c r="M9" s="107">
+      <c r="I9" s="109"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
+      <c r="M9" s="108">
         <f>CHARACTER_ARMOR</f>
         <v>2</v>
       </c>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="109"/>
-      <c r="R9" s="107">
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="110"/>
+      <c r="R9" s="108">
         <f>CHARACTER_AURA</f>
         <v>1</v>
       </c>
-      <c r="S9" s="108"/>
-      <c r="T9" s="108"/>
-      <c r="U9" s="109"/>
-      <c r="W9" s="107">
+      <c r="S9" s="109"/>
+      <c r="T9" s="109"/>
+      <c r="U9" s="110"/>
+      <c r="W9" s="108">
         <f>CHARACTER_EXPERTISE</f>
         <v>2</v>
       </c>
-      <c r="X9" s="108"/>
-      <c r="Y9" s="108"/>
-      <c r="Z9" s="109"/>
-      <c r="AB9" s="107">
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AB9" s="108">
         <f>CHARACTER_MOVEMENT</f>
         <v>14</v>
       </c>
-      <c r="AC9" s="108"/>
-      <c r="AD9" s="108"/>
-      <c r="AE9" s="109"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="110"/>
       <c r="AF9" s="31"/>
-      <c r="AG9" s="107">
+      <c r="AG9" s="108">
         <f>CHARACTER_INI</f>
         <v>24</v>
       </c>
-      <c r="AH9" s="108"/>
-      <c r="AI9" s="108"/>
-      <c r="AJ9" s="109"/>
+      <c r="AH9" s="109"/>
+      <c r="AI9" s="109"/>
+      <c r="AJ9" s="110"/>
       <c r="AK9" s="31"/>
-      <c r="AL9" s="107" t="str">
+      <c r="AL9" s="108" t="str">
         <f>FEAT_INI</f>
         <v>4</v>
       </c>
-      <c r="AM9" s="108"/>
-      <c r="AN9" s="108"/>
-      <c r="AO9" s="109"/>
-      <c r="AQ9" s="107">
+      <c r="AM9" s="109"/>
+      <c r="AN9" s="109"/>
+      <c r="AO9" s="110"/>
+      <c r="AQ9" s="108">
         <f>CHARACTER_AP</f>
         <v>3</v>
       </c>
-      <c r="AR9" s="108"/>
-      <c r="AS9" s="108"/>
-      <c r="AT9" s="109"/>
+      <c r="AR9" s="109"/>
+      <c r="AS9" s="109"/>
+      <c r="AT9" s="110"/>
     </row>
     <row r="10" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="90"/>
@@ -7982,41 +7988,41 @@
       <c r="D10" s="91"/>
       <c r="E10" s="92"/>
       <c r="F10" s="32"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="109"/>
-      <c r="R10" s="107"/>
-      <c r="S10" s="108"/>
-      <c r="T10" s="108"/>
-      <c r="U10" s="109"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="108"/>
-      <c r="Y10" s="108"/>
-      <c r="Z10" s="109"/>
-      <c r="AB10" s="107"/>
-      <c r="AC10" s="108"/>
-      <c r="AD10" s="108"/>
-      <c r="AE10" s="109"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="110"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="109"/>
+      <c r="T10" s="109"/>
+      <c r="U10" s="110"/>
+      <c r="W10" s="108"/>
+      <c r="X10" s="109"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="110"/>
+      <c r="AB10" s="108"/>
+      <c r="AC10" s="109"/>
+      <c r="AD10" s="109"/>
+      <c r="AE10" s="110"/>
       <c r="AF10" s="31"/>
-      <c r="AG10" s="107"/>
-      <c r="AH10" s="108"/>
-      <c r="AI10" s="108"/>
-      <c r="AJ10" s="109"/>
+      <c r="AG10" s="108"/>
+      <c r="AH10" s="109"/>
+      <c r="AI10" s="109"/>
+      <c r="AJ10" s="110"/>
       <c r="AK10" s="31"/>
-      <c r="AL10" s="107"/>
-      <c r="AM10" s="108"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="109"/>
+      <c r="AL10" s="108"/>
+      <c r="AM10" s="109"/>
+      <c r="AN10" s="109"/>
+      <c r="AO10" s="110"/>
       <c r="AP10" s="31"/>
-      <c r="AQ10" s="107"/>
-      <c r="AR10" s="108"/>
-      <c r="AS10" s="108"/>
-      <c r="AT10" s="109"/>
+      <c r="AQ10" s="108"/>
+      <c r="AR10" s="109"/>
+      <c r="AS10" s="109"/>
+      <c r="AT10" s="110"/>
     </row>
     <row r="11" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="90"/>
@@ -8024,49 +8030,49 @@
       <c r="D11" s="91"/>
       <c r="E11" s="92"/>
       <c r="F11" s="32"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="112"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="112"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="111"/>
-      <c r="T11" s="111"/>
-      <c r="U11" s="112"/>
-      <c r="W11" s="110"/>
-      <c r="X11" s="111"/>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="112"/>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="111"/>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="112"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="113"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="113"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="113"/>
+      <c r="W11" s="111"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="113"/>
+      <c r="AB11" s="111"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="113"/>
       <c r="AF11" s="31"/>
-      <c r="AG11" s="110"/>
-      <c r="AH11" s="111"/>
-      <c r="AI11" s="111"/>
-      <c r="AJ11" s="112"/>
+      <c r="AG11" s="111"/>
+      <c r="AH11" s="112"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="113"/>
       <c r="AK11" s="31"/>
-      <c r="AL11" s="110"/>
-      <c r="AM11" s="111"/>
-      <c r="AN11" s="111"/>
-      <c r="AO11" s="112"/>
+      <c r="AL11" s="111"/>
+      <c r="AM11" s="112"/>
+      <c r="AN11" s="112"/>
+      <c r="AO11" s="113"/>
       <c r="AP11" s="31"/>
-      <c r="AQ11" s="110"/>
-      <c r="AR11" s="111"/>
-      <c r="AS11" s="111"/>
-      <c r="AT11" s="112"/>
+      <c r="AQ11" s="111"/>
+      <c r="AR11" s="112"/>
+      <c r="AS11" s="112"/>
+      <c r="AT11" s="113"/>
     </row>
     <row r="12" spans="2:57" ht="10" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="37"/>
-      <c r="C12" s="93">
+      <c r="C12" s="86">
         <f>STR_TOTAL</f>
         <v>71</v>
       </c>
-      <c r="D12" s="94"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="38"/>
       <c r="F12" s="32"/>
       <c r="G12" s="36"/>
@@ -8107,8 +8113,8 @@
     </row>
     <row r="13" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="33"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="89"/>
       <c r="E13" s="32"/>
       <c r="F13" s="32"/>
       <c r="G13" s="36"/>
@@ -8145,27 +8151,27 @@
       <c r="AA13" s="53"/>
       <c r="AB13" s="54"/>
       <c r="AC13" s="36"/>
-      <c r="AE13" s="85" t="s">
+      <c r="AE13" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="85"/>
-      <c r="AH13" s="85"/>
-      <c r="AI13" s="85"/>
-      <c r="AJ13" s="85"/>
-      <c r="AK13" s="85"/>
-      <c r="AL13" s="85"/>
-      <c r="AM13" s="85"/>
-      <c r="AN13" s="85"/>
-      <c r="AO13" s="85"/>
-      <c r="AP13" s="85"/>
-      <c r="AQ13" s="85"/>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="85"/>
-      <c r="AT13" s="85"/>
-      <c r="AU13" s="85"/>
-      <c r="AV13" s="85"/>
-      <c r="AW13" s="85"/>
+      <c r="AF13" s="96"/>
+      <c r="AG13" s="96"/>
+      <c r="AH13" s="96"/>
+      <c r="AI13" s="96"/>
+      <c r="AJ13" s="96"/>
+      <c r="AK13" s="96"/>
+      <c r="AL13" s="96"/>
+      <c r="AM13" s="96"/>
+      <c r="AN13" s="96"/>
+      <c r="AO13" s="96"/>
+      <c r="AP13" s="96"/>
+      <c r="AQ13" s="96"/>
+      <c r="AR13" s="96"/>
+      <c r="AS13" s="96"/>
+      <c r="AT13" s="96"/>
+      <c r="AU13" s="96"/>
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="96"/>
     </row>
     <row r="14" spans="2:57" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33"/>
@@ -8185,7 +8191,7 @@
       <c r="M14" s="47"/>
       <c r="N14" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],3,11)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
@@ -8206,33 +8212,33 @@
       <c r="AA14" s="55"/>
       <c r="AB14" s="56"/>
       <c r="AC14" s="36"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="86"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="86"/>
-      <c r="AN14" s="86"/>
-      <c r="AO14" s="86"/>
-      <c r="AP14" s="86"/>
-      <c r="AQ14" s="86"/>
-      <c r="AR14" s="86"/>
-      <c r="AS14" s="86"/>
-      <c r="AT14" s="86"/>
-      <c r="AU14" s="86"/>
-      <c r="AV14" s="86"/>
-      <c r="AW14" s="86"/>
+      <c r="AE14" s="97"/>
+      <c r="AF14" s="97"/>
+      <c r="AG14" s="97"/>
+      <c r="AH14" s="97"/>
+      <c r="AI14" s="97"/>
+      <c r="AJ14" s="97"/>
+      <c r="AK14" s="97"/>
+      <c r="AL14" s="97"/>
+      <c r="AM14" s="97"/>
+      <c r="AN14" s="97"/>
+      <c r="AO14" s="97"/>
+      <c r="AP14" s="97"/>
+      <c r="AQ14" s="97"/>
+      <c r="AR14" s="97"/>
+      <c r="AS14" s="97"/>
+      <c r="AT14" s="97"/>
+      <c r="AU14" s="97"/>
+      <c r="AV14" s="97"/>
+      <c r="AW14" s="97"/>
     </row>
     <row r="15" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="32"/>
       <c r="G15" s="36"/>
       <c r="H15" s="46" t="str">
@@ -8246,7 +8252,7 @@
       <c r="M15" s="47"/>
       <c r="N15" s="42" t="str">
         <f>INDEX(Table2[[#Headers],[#Data]],4,11)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
@@ -8329,28 +8335,28 @@
       <c r="AA16" s="55"/>
       <c r="AB16" s="56"/>
       <c r="AC16" s="36"/>
-      <c r="AE16" s="116" t="str">
+      <c r="AE16" s="117" t="str">
         <f>Weapons!AA3</f>
         <v>Great Axe: 2d12+2+8+5  INI:18</v>
       </c>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="116"/>
-      <c r="AL16" s="116"/>
-      <c r="AM16" s="116"/>
-      <c r="AN16" s="116"/>
-      <c r="AO16" s="116"/>
-      <c r="AP16" s="116"/>
-      <c r="AQ16" s="116"/>
-      <c r="AR16" s="116"/>
-      <c r="AS16" s="116"/>
-      <c r="AT16" s="116"/>
-      <c r="AU16" s="116"/>
-      <c r="AV16" s="116"/>
-      <c r="AW16" s="116"/>
+      <c r="AF16" s="117"/>
+      <c r="AG16" s="117"/>
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="117"/>
+      <c r="AJ16" s="117"/>
+      <c r="AK16" s="117"/>
+      <c r="AL16" s="117"/>
+      <c r="AM16" s="117"/>
+      <c r="AN16" s="117"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="117"/>
+      <c r="AQ16" s="117"/>
+      <c r="AR16" s="117"/>
+      <c r="AS16" s="117"/>
+      <c r="AT16" s="117"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
       <c r="AX16" s="78"/>
       <c r="AY16" s="78"/>
       <c r="AZ16" s="78"/>
@@ -8492,11 +8498,11 @@
     </row>
     <row r="19" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="34"/>
-      <c r="C19" s="93">
+      <c r="C19" s="86">
         <f>AGI_TOTAL</f>
         <v>5</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="35"/>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
@@ -8554,8 +8560,8 @@
     </row>
     <row r="20" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="32"/>
       <c r="F20" s="32"/>
       <c r="G20" s="36"/>
@@ -8678,12 +8684,12 @@
       <c r="BG21" s="32"/>
     </row>
     <row r="22" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="32"/>
       <c r="G22" s="36"/>
       <c r="H22" s="46" t="str">
@@ -8718,27 +8724,27 @@
       <c r="AA22" s="55"/>
       <c r="AB22" s="56"/>
       <c r="AC22" s="36"/>
-      <c r="AE22" s="85" t="s">
+      <c r="AE22" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="85"/>
-      <c r="AL22" s="85"/>
-      <c r="AM22" s="85"/>
-      <c r="AN22" s="85"/>
-      <c r="AO22" s="85"/>
-      <c r="AP22" s="85"/>
-      <c r="AQ22" s="85"/>
-      <c r="AR22" s="85"/>
-      <c r="AS22" s="85"/>
-      <c r="AT22" s="85"/>
-      <c r="AU22" s="85"/>
-      <c r="AV22" s="85"/>
-      <c r="AW22" s="85"/>
+      <c r="AF22" s="96"/>
+      <c r="AG22" s="96"/>
+      <c r="AH22" s="96"/>
+      <c r="AI22" s="96"/>
+      <c r="AJ22" s="96"/>
+      <c r="AK22" s="96"/>
+      <c r="AL22" s="96"/>
+      <c r="AM22" s="96"/>
+      <c r="AN22" s="96"/>
+      <c r="AO22" s="96"/>
+      <c r="AP22" s="96"/>
+      <c r="AQ22" s="96"/>
+      <c r="AR22" s="96"/>
+      <c r="AS22" s="96"/>
+      <c r="AT22" s="96"/>
+      <c r="AU22" s="96"/>
+      <c r="AV22" s="96"/>
+      <c r="AW22" s="96"/>
       <c r="BA22" s="32"/>
       <c r="BB22" s="32"/>
       <c r="BC22" s="32"/>
@@ -8790,25 +8796,25 @@
       <c r="AB23" s="43"/>
       <c r="AC23" s="36"/>
       <c r="AD23" s="36"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="86"/>
-      <c r="AM23" s="86"/>
-      <c r="AN23" s="86"/>
-      <c r="AO23" s="86"/>
-      <c r="AP23" s="86"/>
-      <c r="AQ23" s="86"/>
-      <c r="AR23" s="86"/>
-      <c r="AS23" s="86"/>
-      <c r="AT23" s="86"/>
-      <c r="AU23" s="86"/>
-      <c r="AV23" s="86"/>
-      <c r="AW23" s="86"/>
+      <c r="AE23" s="97"/>
+      <c r="AF23" s="97"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="97"/>
+      <c r="AI23" s="97"/>
+      <c r="AJ23" s="97"/>
+      <c r="AK23" s="97"/>
+      <c r="AL23" s="97"/>
+      <c r="AM23" s="97"/>
+      <c r="AN23" s="97"/>
+      <c r="AO23" s="97"/>
+      <c r="AP23" s="97"/>
+      <c r="AQ23" s="97"/>
+      <c r="AR23" s="97"/>
+      <c r="AS23" s="97"/>
+      <c r="AT23" s="97"/>
+      <c r="AU23" s="97"/>
+      <c r="AV23" s="97"/>
+      <c r="AW23" s="97"/>
       <c r="BA23" s="32"/>
       <c r="BB23" s="32"/>
       <c r="BC23" s="32"/>
@@ -8955,11 +8961,11 @@
     </row>
     <row r="26" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="34"/>
-      <c r="C26" s="93">
+      <c r="C26" s="86">
         <f>INU_TOTAL</f>
         <v>11</v>
       </c>
-      <c r="D26" s="94"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="35"/>
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
@@ -8997,27 +9003,27 @@
       <c r="AB26" s="43"/>
       <c r="AC26" s="36"/>
       <c r="AD26" s="36"/>
-      <c r="AE26" s="117" t="s">
+      <c r="AE26" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="AF26" s="117"/>
-      <c r="AG26" s="117"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="117"/>
-      <c r="AJ26" s="117"/>
-      <c r="AK26" s="117"/>
-      <c r="AL26" s="117"/>
-      <c r="AM26" s="117"/>
-      <c r="AN26" s="117"/>
-      <c r="AO26" s="117"/>
-      <c r="AP26" s="117"/>
-      <c r="AQ26" s="117"/>
-      <c r="AR26" s="117"/>
-      <c r="AS26" s="117"/>
-      <c r="AT26" s="117"/>
-      <c r="AU26" s="117"/>
-      <c r="AV26" s="117"/>
-      <c r="AW26" s="117"/>
+      <c r="AF26" s="118"/>
+      <c r="AG26" s="118"/>
+      <c r="AH26" s="118"/>
+      <c r="AI26" s="118"/>
+      <c r="AJ26" s="118"/>
+      <c r="AK26" s="118"/>
+      <c r="AL26" s="118"/>
+      <c r="AM26" s="118"/>
+      <c r="AN26" s="118"/>
+      <c r="AO26" s="118"/>
+      <c r="AP26" s="118"/>
+      <c r="AQ26" s="118"/>
+      <c r="AR26" s="118"/>
+      <c r="AS26" s="118"/>
+      <c r="AT26" s="118"/>
+      <c r="AU26" s="118"/>
+      <c r="AV26" s="118"/>
+      <c r="AW26" s="118"/>
       <c r="BA26" s="32"/>
       <c r="BB26" s="32"/>
       <c r="BC26" s="71"/>
@@ -9028,8 +9034,8 @@
     </row>
     <row r="27" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="33"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="96"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="32"/>
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
@@ -9062,25 +9068,25 @@
       <c r="AB27" s="43"/>
       <c r="AC27" s="36"/>
       <c r="AD27" s="36"/>
-      <c r="AE27" s="117"/>
-      <c r="AF27" s="117"/>
-      <c r="AG27" s="117"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="117"/>
-      <c r="AJ27" s="117"/>
-      <c r="AK27" s="117"/>
-      <c r="AL27" s="117"/>
-      <c r="AM27" s="117"/>
-      <c r="AN27" s="117"/>
-      <c r="AO27" s="117"/>
-      <c r="AP27" s="117"/>
-      <c r="AQ27" s="117"/>
-      <c r="AR27" s="117"/>
-      <c r="AS27" s="117"/>
-      <c r="AT27" s="117"/>
-      <c r="AU27" s="117"/>
-      <c r="AV27" s="117"/>
-      <c r="AW27" s="117"/>
+      <c r="AE27" s="118"/>
+      <c r="AF27" s="118"/>
+      <c r="AG27" s="118"/>
+      <c r="AH27" s="118"/>
+      <c r="AI27" s="118"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="118"/>
+      <c r="AL27" s="118"/>
+      <c r="AM27" s="118"/>
+      <c r="AN27" s="118"/>
+      <c r="AO27" s="118"/>
+      <c r="AP27" s="118"/>
+      <c r="AQ27" s="118"/>
+      <c r="AR27" s="118"/>
+      <c r="AS27" s="118"/>
+      <c r="AT27" s="118"/>
+      <c r="AU27" s="118"/>
+      <c r="AV27" s="118"/>
+      <c r="AW27" s="118"/>
       <c r="BA27" s="32"/>
       <c r="BB27" s="32"/>
       <c r="BC27" s="32"/>
@@ -9113,18 +9119,18 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="43"/>
       <c r="R28" s="36"/>
-      <c r="S28" s="113" t="s">
+      <c r="S28" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
-      <c r="W28" s="114"/>
-      <c r="X28" s="114"/>
-      <c r="Y28" s="114"/>
-      <c r="Z28" s="114"/>
-      <c r="AA28" s="114"/>
-      <c r="AB28" s="115"/>
+      <c r="T28" s="99"/>
+      <c r="U28" s="99"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="99"/>
+      <c r="X28" s="99"/>
+      <c r="Y28" s="99"/>
+      <c r="Z28" s="99"/>
+      <c r="AA28" s="99"/>
+      <c r="AB28" s="100"/>
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36" t="s">
@@ -9157,12 +9163,12 @@
       <c r="BG28" s="32"/>
     </row>
     <row r="29" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="94"/>
+      <c r="E29" s="95"/>
       <c r="G29" s="36"/>
       <c r="H29" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,18,1)</f>
@@ -9432,11 +9438,11 @@
     </row>
     <row r="33" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34"/>
-      <c r="C33" s="93">
+      <c r="C33" s="86">
         <f>CHA_TOTAL</f>
         <v>23</v>
       </c>
-      <c r="D33" s="94"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="35"/>
       <c r="G33" s="36"/>
       <c r="H33" s="46" t="str">
@@ -9475,25 +9481,27 @@
       <c r="AB33" s="67"/>
       <c r="AC33" s="36"/>
       <c r="AD33" s="36"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="36"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="36"/>
-      <c r="AI33" s="36"/>
-      <c r="AJ33" s="36"/>
-      <c r="AK33" s="36"/>
-      <c r="AL33" s="36"/>
-      <c r="AM33" s="36"/>
-      <c r="AN33" s="36"/>
-      <c r="AO33" s="36"/>
-      <c r="AP33" s="36"/>
-      <c r="AQ33" s="36"/>
-      <c r="AR33" s="36"/>
-      <c r="AS33" s="36"/>
-      <c r="AT33" s="36"/>
-      <c r="AU33" s="36"/>
-      <c r="AV33" s="36"/>
-      <c r="AW33" s="36"/>
+      <c r="AE33" s="96" t="s">
+        <v>289</v>
+      </c>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+      <c r="AI33" s="96"/>
+      <c r="AJ33" s="96"/>
+      <c r="AK33" s="96"/>
+      <c r="AL33" s="96"/>
+      <c r="AM33" s="96"/>
+      <c r="AN33" s="96"/>
+      <c r="AO33" s="96"/>
+      <c r="AP33" s="96"/>
+      <c r="AQ33" s="96"/>
+      <c r="AR33" s="96"/>
+      <c r="AS33" s="96"/>
+      <c r="AT33" s="96"/>
+      <c r="AU33" s="96"/>
+      <c r="AV33" s="96"/>
+      <c r="AW33" s="96"/>
       <c r="BA33" s="32"/>
       <c r="BB33" s="32"/>
       <c r="BC33" s="32"/>
@@ -9504,8 +9512,8 @@
     </row>
     <row r="34" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="33"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="96"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
       <c r="E34" s="32"/>
       <c r="G34" s="36"/>
       <c r="H34" s="46" t="str">
@@ -9544,25 +9552,25 @@
       <c r="AB34" s="67"/>
       <c r="AC34" s="36"/>
       <c r="AD34" s="36"/>
-      <c r="AE34" s="36"/>
-      <c r="AF34" s="36"/>
-      <c r="AG34" s="36"/>
-      <c r="AH34" s="36"/>
-      <c r="AI34" s="36"/>
-      <c r="AJ34" s="36"/>
-      <c r="AK34" s="36"/>
-      <c r="AL34" s="36"/>
-      <c r="AM34" s="36"/>
-      <c r="AN34" s="36"/>
-      <c r="AO34" s="36"/>
-      <c r="AP34" s="36"/>
-      <c r="AQ34" s="36"/>
-      <c r="AR34" s="36"/>
-      <c r="AS34" s="36"/>
-      <c r="AT34" s="36"/>
-      <c r="AU34" s="36"/>
-      <c r="AV34" s="36"/>
-      <c r="AW34" s="36"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="97"/>
+      <c r="AK34" s="97"/>
+      <c r="AL34" s="97"/>
+      <c r="AM34" s="97"/>
+      <c r="AN34" s="97"/>
+      <c r="AO34" s="97"/>
+      <c r="AP34" s="97"/>
+      <c r="AQ34" s="97"/>
+      <c r="AR34" s="97"/>
+      <c r="AS34" s="97"/>
+      <c r="AT34" s="97"/>
+      <c r="AU34" s="97"/>
+      <c r="AV34" s="97"/>
+      <c r="AW34" s="97"/>
       <c r="BA34" s="32"/>
       <c r="BB34" s="32"/>
       <c r="BC34" s="32"/>
@@ -9618,13 +9626,13 @@
       <c r="AK35" s="36"/>
       <c r="AL35" s="36"/>
       <c r="AM35" s="36"/>
-      <c r="AN35" s="36"/>
-      <c r="AO35" s="36"/>
-      <c r="AP35" s="36"/>
-      <c r="AQ35" s="36"/>
-      <c r="AR35" s="36"/>
-      <c r="AS35" s="36"/>
-      <c r="AT35" s="36"/>
+      <c r="AN35" s="85"/>
+      <c r="AO35" s="85"/>
+      <c r="AP35" s="85"/>
+      <c r="AQ35" s="85"/>
+      <c r="AR35" s="85"/>
+      <c r="AS35" s="85"/>
+      <c r="AT35" s="85"/>
       <c r="AU35" s="36"/>
       <c r="AV35" s="36"/>
       <c r="AW35" s="36"/>
@@ -9637,12 +9645,12 @@
       <c r="BG35" s="32"/>
     </row>
     <row r="36" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="89"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="95"/>
       <c r="G36" s="36"/>
       <c r="H36" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,25,1)</f>
@@ -9680,25 +9688,28 @@
       <c r="AB36" s="67"/>
       <c r="AC36" s="36"/>
       <c r="AD36" s="36"/>
-      <c r="AE36" s="36"/>
-      <c r="AF36" s="36"/>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-      <c r="AJ36" s="36"/>
-      <c r="AK36" s="36"/>
-      <c r="AL36" s="36"/>
-      <c r="AM36" s="36"/>
-      <c r="AN36" s="36"/>
-      <c r="AO36" s="36"/>
-      <c r="AP36" s="36"/>
-      <c r="AQ36" s="36"/>
-      <c r="AR36" s="36"/>
-      <c r="AS36" s="36"/>
-      <c r="AT36" s="36"/>
-      <c r="AU36" s="36"/>
-      <c r="AV36" s="36"/>
-      <c r="AW36" s="36"/>
+      <c r="AE36" s="117" t="str">
+        <f>"Strength: " &amp; Statistics!$O2</f>
+        <v>Strength: 1d20 + 0</v>
+      </c>
+      <c r="AF36" s="117"/>
+      <c r="AG36" s="117"/>
+      <c r="AH36" s="117"/>
+      <c r="AI36" s="117"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="117"/>
+      <c r="AL36" s="117"/>
+      <c r="AM36" s="117"/>
+      <c r="AN36" s="117"/>
+      <c r="AO36" s="117"/>
+      <c r="AP36" s="117"/>
+      <c r="AQ36" s="117"/>
+      <c r="AR36" s="117"/>
+      <c r="AS36" s="117"/>
+      <c r="AT36" s="117"/>
+      <c r="AU36" s="117"/>
+      <c r="AV36" s="117"/>
+      <c r="AW36" s="117"/>
       <c r="BA36" s="32"/>
       <c r="BB36" s="32"/>
       <c r="BC36" s="32"/>
@@ -9752,25 +9763,28 @@
       <c r="AB37" s="67"/>
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
-      <c r="AE37" s="36"/>
-      <c r="AF37" s="36"/>
-      <c r="AG37" s="36"/>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-      <c r="AJ37" s="36"/>
-      <c r="AK37" s="36"/>
-      <c r="AL37" s="36"/>
-      <c r="AM37" s="36"/>
-      <c r="AN37" s="36"/>
-      <c r="AO37" s="36"/>
-      <c r="AP37" s="36"/>
-      <c r="AQ37" s="36"/>
-      <c r="AR37" s="36"/>
-      <c r="AS37" s="36"/>
-      <c r="AT37" s="36"/>
-      <c r="AU37" s="36"/>
-      <c r="AV37" s="36"/>
-      <c r="AW37" s="36"/>
+      <c r="AE37" s="117" t="str">
+        <f>"Strength: " &amp; Statistics!$O3</f>
+        <v>Strength: 1d10 + 0</v>
+      </c>
+      <c r="AF37" s="117"/>
+      <c r="AG37" s="117"/>
+      <c r="AH37" s="117"/>
+      <c r="AI37" s="117"/>
+      <c r="AJ37" s="117"/>
+      <c r="AK37" s="117"/>
+      <c r="AL37" s="117"/>
+      <c r="AM37" s="117"/>
+      <c r="AN37" s="117"/>
+      <c r="AO37" s="117"/>
+      <c r="AP37" s="117"/>
+      <c r="AQ37" s="117"/>
+      <c r="AR37" s="117"/>
+      <c r="AS37" s="117"/>
+      <c r="AT37" s="117"/>
+      <c r="AU37" s="117"/>
+      <c r="AV37" s="117"/>
+      <c r="AW37" s="117"/>
       <c r="BA37" s="32"/>
       <c r="BB37" s="32"/>
       <c r="BC37" s="32"/>
@@ -9821,25 +9835,28 @@
       <c r="AB38" s="67"/>
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="36"/>
-      <c r="AT38" s="36"/>
-      <c r="AU38" s="36"/>
-      <c r="AV38" s="36"/>
-      <c r="AW38" s="36"/>
+      <c r="AE38" s="117" t="str">
+        <f>"Strength: " &amp; Statistics!$O4</f>
+        <v>Strength: 1d10 + 0</v>
+      </c>
+      <c r="AF38" s="117"/>
+      <c r="AG38" s="117"/>
+      <c r="AH38" s="117"/>
+      <c r="AI38" s="117"/>
+      <c r="AJ38" s="117"/>
+      <c r="AK38" s="117"/>
+      <c r="AL38" s="117"/>
+      <c r="AM38" s="117"/>
+      <c r="AN38" s="117"/>
+      <c r="AO38" s="117"/>
+      <c r="AP38" s="117"/>
+      <c r="AQ38" s="117"/>
+      <c r="AR38" s="117"/>
+      <c r="AS38" s="117"/>
+      <c r="AT38" s="117"/>
+      <c r="AU38" s="117"/>
+      <c r="AV38" s="117"/>
+      <c r="AW38" s="117"/>
       <c r="BA38" s="32"/>
       <c r="BB38" s="32"/>
       <c r="BC38" s="32"/>
@@ -9848,7 +9865,7 @@
       <c r="BF38" s="32"/>
       <c r="BG38" s="32"/>
     </row>
-    <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="90"/>
       <c r="C39" s="91"/>
       <c r="D39" s="91"/>
@@ -9883,25 +9900,28 @@
       <c r="AB39" s="70"/>
       <c r="AC39" s="36"/>
       <c r="AD39" s="36"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="36"/>
-      <c r="AT39" s="36"/>
-      <c r="AU39" s="36"/>
-      <c r="AV39" s="36"/>
-      <c r="AW39" s="36"/>
+      <c r="AE39" s="117" t="str">
+        <f>"Strength: " &amp; Statistics!$O5</f>
+        <v>Strength: 1d10 + 0</v>
+      </c>
+      <c r="AF39" s="117"/>
+      <c r="AG39" s="117"/>
+      <c r="AH39" s="117"/>
+      <c r="AI39" s="117"/>
+      <c r="AJ39" s="117"/>
+      <c r="AK39" s="117"/>
+      <c r="AL39" s="117"/>
+      <c r="AM39" s="117"/>
+      <c r="AN39" s="117"/>
+      <c r="AO39" s="117"/>
+      <c r="AP39" s="117"/>
+      <c r="AQ39" s="117"/>
+      <c r="AR39" s="117"/>
+      <c r="AS39" s="117"/>
+      <c r="AT39" s="117"/>
+      <c r="AU39" s="117"/>
+      <c r="AV39" s="117"/>
+      <c r="AW39" s="117"/>
       <c r="BA39" s="32"/>
       <c r="BB39" s="32"/>
       <c r="BC39" s="32"/>
@@ -9910,61 +9930,64 @@
       <c r="BF39" s="32"/>
       <c r="BG39" s="32"/>
     </row>
-    <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:59" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="34"/>
-      <c r="C40" s="93">
+      <c r="C40" s="86">
         <f>PER_TOTAL</f>
         <v>19</v>
       </c>
-      <c r="D40" s="94"/>
+      <c r="D40" s="87"/>
       <c r="E40" s="35"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="113" t="s">
+      <c r="H40" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="114"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
-      <c r="O40" s="114"/>
-      <c r="P40" s="114"/>
-      <c r="Q40" s="115"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="99"/>
+      <c r="N40" s="99"/>
+      <c r="O40" s="99"/>
+      <c r="P40" s="99"/>
+      <c r="Q40" s="100"/>
       <c r="R40" s="36"/>
-      <c r="S40" s="113" t="s">
+      <c r="S40" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
-      <c r="Z40" s="114"/>
-      <c r="AA40" s="114"/>
-      <c r="AB40" s="115"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="100"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="36"/>
-      <c r="AT40" s="36"/>
-      <c r="AU40" s="36"/>
-      <c r="AV40" s="36"/>
-      <c r="AW40" s="36"/>
+      <c r="AE40" s="117" t="str">
+        <f>"Strength: " &amp; Statistics!$O6</f>
+        <v>Strength: 1d10 + 0</v>
+      </c>
+      <c r="AF40" s="117"/>
+      <c r="AG40" s="117"/>
+      <c r="AH40" s="117"/>
+      <c r="AI40" s="117"/>
+      <c r="AJ40" s="117"/>
+      <c r="AK40" s="117"/>
+      <c r="AL40" s="117"/>
+      <c r="AM40" s="117"/>
+      <c r="AN40" s="117"/>
+      <c r="AO40" s="117"/>
+      <c r="AP40" s="117"/>
+      <c r="AQ40" s="117"/>
+      <c r="AR40" s="117"/>
+      <c r="AS40" s="117"/>
+      <c r="AT40" s="117"/>
+      <c r="AU40" s="117"/>
+      <c r="AV40" s="117"/>
+      <c r="AW40" s="117"/>
       <c r="BA40" s="32"/>
       <c r="BB40" s="32"/>
       <c r="BC40" s="32"/>
@@ -9975,8 +9998,8 @@
     </row>
     <row r="41" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="33"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="96"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="89"/>
       <c r="E41" s="32"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
@@ -10112,106 +10135,106 @@
       <c r="BG43" s="32"/>
     </row>
     <row r="44" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="85"/>
-      <c r="X44" s="85"/>
-      <c r="Y44" s="85"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="85"/>
-      <c r="AB44" s="85"/>
-      <c r="AC44" s="85"/>
-      <c r="AD44" s="85"/>
-      <c r="AE44" s="85"/>
-      <c r="AF44" s="85"/>
-      <c r="AG44" s="85"/>
-      <c r="AH44" s="85"/>
-      <c r="AI44" s="85"/>
-      <c r="AJ44" s="85"/>
-      <c r="AK44" s="85"/>
-      <c r="AL44" s="85"/>
-      <c r="AM44" s="85"/>
-      <c r="AN44" s="85"/>
-      <c r="AO44" s="85"/>
-      <c r="AP44" s="85"/>
-      <c r="AQ44" s="85"/>
-      <c r="AR44" s="85"/>
-      <c r="AS44" s="85"/>
-      <c r="AT44" s="85"/>
-      <c r="AU44" s="85"/>
-      <c r="AV44" s="85"/>
-      <c r="AW44" s="85"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="96"/>
+      <c r="O44" s="96"/>
+      <c r="P44" s="96"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="96"/>
+      <c r="S44" s="96"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="96"/>
+      <c r="V44" s="96"/>
+      <c r="W44" s="96"/>
+      <c r="X44" s="96"/>
+      <c r="Y44" s="96"/>
+      <c r="Z44" s="96"/>
+      <c r="AA44" s="96"/>
+      <c r="AB44" s="96"/>
+      <c r="AC44" s="96"/>
+      <c r="AD44" s="96"/>
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="96"/>
+      <c r="AG44" s="96"/>
+      <c r="AH44" s="96"/>
+      <c r="AI44" s="96"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
+      <c r="AL44" s="96"/>
+      <c r="AM44" s="96"/>
+      <c r="AN44" s="96"/>
+      <c r="AO44" s="96"/>
+      <c r="AP44" s="96"/>
+      <c r="AQ44" s="96"/>
+      <c r="AR44" s="96"/>
+      <c r="AS44" s="96"/>
+      <c r="AT44" s="96"/>
+      <c r="AU44" s="96"/>
+      <c r="AV44" s="96"/>
+      <c r="AW44" s="96"/>
     </row>
     <row r="45" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="86"/>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="86"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="86"/>
-      <c r="AC45" s="86"/>
-      <c r="AD45" s="86"/>
-      <c r="AE45" s="86"/>
-      <c r="AF45" s="86"/>
-      <c r="AG45" s="86"/>
-      <c r="AH45" s="86"/>
-      <c r="AI45" s="86"/>
-      <c r="AJ45" s="86"/>
-      <c r="AK45" s="86"/>
-      <c r="AL45" s="86"/>
-      <c r="AM45" s="86"/>
-      <c r="AN45" s="86"/>
-      <c r="AO45" s="86"/>
-      <c r="AP45" s="86"/>
-      <c r="AQ45" s="86"/>
-      <c r="AR45" s="86"/>
-      <c r="AS45" s="86"/>
-      <c r="AT45" s="86"/>
-      <c r="AU45" s="86"/>
-      <c r="AV45" s="86"/>
-      <c r="AW45" s="86"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
+      <c r="AI45" s="97"/>
+      <c r="AJ45" s="97"/>
+      <c r="AK45" s="97"/>
+      <c r="AL45" s="97"/>
+      <c r="AM45" s="97"/>
+      <c r="AN45" s="97"/>
+      <c r="AO45" s="97"/>
+      <c r="AP45" s="97"/>
+      <c r="AQ45" s="97"/>
+      <c r="AR45" s="97"/>
+      <c r="AS45" s="97"/>
+      <c r="AT45" s="97"/>
+      <c r="AU45" s="97"/>
+      <c r="AV45" s="97"/>
+      <c r="AW45" s="97"/>
     </row>
     <row r="46" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AT46" s="36"/>
@@ -11894,28 +11917,30 @@
     <row r="290" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="291" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="54">
+    <mergeCell ref="W9:Z11"/>
+    <mergeCell ref="R9:U11"/>
+    <mergeCell ref="M9:P11"/>
     <mergeCell ref="AE16:AW16"/>
     <mergeCell ref="H40:Q40"/>
     <mergeCell ref="AE22:AW23"/>
     <mergeCell ref="AE26:AW27"/>
     <mergeCell ref="AB9:AE11"/>
     <mergeCell ref="AG9:AJ11"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="AE13:AW14"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AQ9:AT11"/>
-    <mergeCell ref="AL8:AO8"/>
-    <mergeCell ref="AL9:AO11"/>
-    <mergeCell ref="H9:K11"/>
-    <mergeCell ref="W9:Z11"/>
-    <mergeCell ref="R9:U11"/>
-    <mergeCell ref="M9:P11"/>
+    <mergeCell ref="AE33:AW34"/>
+    <mergeCell ref="AE36:AW36"/>
+    <mergeCell ref="AE37:AW37"/>
+    <mergeCell ref="AE38:AW38"/>
+    <mergeCell ref="AE39:AW39"/>
+    <mergeCell ref="AE40:AW40"/>
     <mergeCell ref="AS2:AV5"/>
     <mergeCell ref="AS6:AV6"/>
     <mergeCell ref="AN2:AQ5"/>
     <mergeCell ref="AN6:AQ6"/>
     <mergeCell ref="AG8:AJ8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="B37:E39"/>
     <mergeCell ref="S2:Z3"/>
     <mergeCell ref="AB2:AI3"/>
     <mergeCell ref="M8:P8"/>
@@ -11925,12 +11950,12 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="AB8:AE8"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="B30:E32"/>
-    <mergeCell ref="C33:D34"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E39"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="AE13:AW14"/>
+    <mergeCell ref="AQ9:AT11"/>
+    <mergeCell ref="AL9:AO11"/>
+    <mergeCell ref="H9:K11"/>
     <mergeCell ref="C12:D13"/>
     <mergeCell ref="B9:E11"/>
     <mergeCell ref="B15:E15"/>
@@ -11943,6 +11968,10 @@
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="S28:AB28"/>
     <mergeCell ref="S40:AB40"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="B30:E32"/>
+    <mergeCell ref="C33:D34"/>
+    <mergeCell ref="B36:E36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -14504,7 +14533,7 @@
   <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -14521,33 +14550,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="121" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
       <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="119"/>
+      <c r="C2" s="120"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
       <c r="O2" s="11"/>
       <c r="Q2" s="1" t="s">
         <v>136</v>
@@ -14563,11 +14592,11 @@
       <c r="A3" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="121">
+      <c r="B3" s="122">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
         <v>5</v>
       </c>
-      <c r="C3" s="122"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="7"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -14593,10 +14622,10 @@
       <c r="A4" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="119"/>
+      <c r="C4" s="120"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14623,10 +14652,10 @@
       <c r="A5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="122" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="122"/>
+      <c r="C5" s="123"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -14637,11 +14666,11 @@
       <c r="A6" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="118">
+      <c r="B6" s="119">
         <f>SUM(D6:E6)</f>
         <v>2</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="120"/>
       <c r="D6" s="2">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,3,TRUE)</f>
         <v>2</v>
@@ -14680,11 +14709,11 @@
       <c r="A7" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="121">
+      <c r="B7" s="122">
         <f>SUM(D7,F7) * IF(CHARACTER_LEVEL &gt; 0, CHARACTER_LEVEL, 1)</f>
         <v>145</v>
       </c>
-      <c r="C7" s="122"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="2">
         <f>STR * E7 + AGI + INU + CHA + PER</f>
         <v>24</v>
@@ -14704,7 +14733,7 @@
       </c>
       <c r="J7" s="6">
         <f>Table2[[#Totals],[Statistic]]</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="6">
         <f>FEAT_XP</f>
@@ -14723,7 +14752,7 @@
       </c>
       <c r="O7" s="6">
         <f>SUM(I7:N7)</f>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="17"/>
       <c r="R7" s="10"/>
@@ -14732,11 +14761,11 @@
       <c r="A8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="118">
+      <c r="B8" s="119">
         <f>SUM(D8:E8)</f>
         <v>14</v>
       </c>
-      <c r="C8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="2">
         <v>10</v>
       </c>
@@ -14753,11 +14782,11 @@
       <c r="A9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="121">
+      <c r="B9" s="122">
         <f>FEAT_ARMOR</f>
         <v>2</v>
       </c>
-      <c r="C9" s="122"/>
+      <c r="C9" s="123"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -14766,7 +14795,7 @@
       </c>
       <c r="K9" s="16">
         <f>L4-O7</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q9" s="17"/>
       <c r="R9" s="10"/>
@@ -14775,11 +14804,11 @@
       <c r="A10" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="118">
+      <c r="B10" s="119">
         <f>FEAT_AURA</f>
         <v>1</v>
       </c>
-      <c r="C10" s="119"/>
+      <c r="C10" s="120"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -14790,11 +14819,11 @@
       <c r="A11" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="121">
+      <c r="B11" s="122">
         <f>D11+E11</f>
         <v>24</v>
       </c>
-      <c r="C11" s="122"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="2">
         <v>20</v>
       </c>
@@ -14811,11 +14840,11 @@
       <c r="A12" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="118">
+      <c r="B12" s="119">
         <f>D12+E12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="119"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="2">
         <v>3</v>
       </c>
@@ -14830,8 +14859,8 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="123"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -14840,8 +14869,8 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="119"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -14850,8 +14879,8 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
-      <c r="B15" s="121"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -14860,8 +14889,8 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -14870,8 +14899,8 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="121"/>
-      <c r="C17" s="122"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -14880,8 +14909,8 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -14890,8 +14919,8 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
-      <c r="B19" s="121"/>
-      <c r="C19" s="122"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -14900,8 +14929,8 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="119"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -14910,8 +14939,8 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
-      <c r="B21" s="121"/>
-      <c r="C21" s="122"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -15488,7 +15517,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15584,7 +15613,7 @@
         <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -15597,7 +15626,7 @@
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="H3" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
@@ -15612,7 +15641,7 @@
       </c>
       <c r="K3" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H3:J3)</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -15623,7 +15652,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -15636,7 +15665,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>1d10</v>
+        <v>1d20</v>
       </c>
       <c r="H4" s="2">
         <f>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</f>
@@ -15651,7 +15680,7 @@
       </c>
       <c r="K4" s="2" t="str">
         <f>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H4:J4) + ARMOR_DODGE</f>
-        <v>1d10 + 0</v>
+        <v>1d20 + 0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -17048,11 +17077,11 @@
       </c>
       <c r="B35" s="2">
         <f>SUM(Table2[[#Totals],[Bought]:[Expert]])</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2">
         <f>COUNTIF(Table2[Bought],"Yes") * 2</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
         <f>COUNTIF(Table2[Skilled],"Yes") * 3</f>
@@ -17063,8 +17092,8 @@
         <v>4</v>
       </c>
       <c r="F35" s="2">
-        <f>COUNTIF(Table2[Skilled],"Yes") * 5</f>
-        <v>5</v>
+        <f>COUNTIF(Table2[Expert],"Yes") * 5</f>
+        <v>0</v>
       </c>
       <c r="G35" s="4"/>
       <c r="M35" s="48"/>
@@ -18746,29 +18775,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
       <c r="V1" s="28"/>
       <c r="W1" s="28"/>
     </row>
@@ -20294,33 +20323,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123" t="s">
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123" t="s">
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="123"/>
-      <c r="U1" s="123"/>
-      <c r="V1" s="123"/>
-      <c r="W1" s="123"/>
+      <c r="T1" s="124"/>
+      <c r="U1" s="124"/>
+      <c r="V1" s="124"/>
+      <c r="W1" s="124"/>
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">

--- a/Barbie.xlsx
+++ b/Barbie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baudin/Projects/aria-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688DC9F0-2919-0344-9207-AA42899915E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03792753-5046-6344-AE5C-E875EFEFAF77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="23540" xr2:uid="{47C10E70-C8A1-594D-875F-C0FED4FAA393}"/>
   </bookViews>
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="291">
   <si>
     <t>Weapon Skill</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>Charm</t>
-  </si>
-  <si>
-    <t>Torture</t>
   </si>
   <si>
     <t>Inspire</t>
@@ -1129,6 +1126,12 @@
   </si>
   <si>
     <t>Stat Rolls</t>
+  </si>
+  <si>
+    <t>Wilderness Surv.</t>
+  </si>
+  <si>
+    <t>Haggle</t>
   </si>
 </sst>
 </file>
@@ -1993,6 +1996,76 @@
   </cellStyles>
   <dxfs count="297">
     <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5585,16 +5658,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6069,26 +6132,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -6711,46 +6754,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -6927,87 +6930,87 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{172D7A85-ACEB-9F45-BDE6-0764A63BAFE0}" name="Table7" displayName="Table7" ref="A1:R58" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <autoFilter ref="A1:R58" xr:uid="{BA70A05F-D1C9-EC47-8CA4-A9B304C93060}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="32"/>
-    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{98665492-075C-D44B-8EDA-A52F37F4C96E}" name="Name" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{73639F93-F9BF-204E-AEC8-CAA30EB8D6B5}" name="STR" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{6B9E0521-C50E-264F-9593-C1F9E4D23715}" name="AGI" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{44939BD3-1FFC-3E45-994F-37661A933E0C}" name="INU" dataDxfId="46"/>
+    <tableColumn id="18" xr3:uid="{556D51F8-4C69-4644-B0FC-A64BD79C53F2}" name="CHA" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{5BFA8BB0-66CB-0546-8525-FCA528C6BD63}" name="PER" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{3512D05D-3A98-B245-A95E-F240DF5C3211}" name="HP Factor" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{D0765DA9-8712-204F-B9A9-1B49046E2AAD}" name="XP" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{597A7743-384F-C14E-BB6E-C23E1C6CE1CA}" name="Column2" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{60EC4EF6-1D62-7949-816C-66C151F7BFBA}" name="Column3" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{F0B18199-5A5B-414E-8450-522D2887E3DD}" name="Column4" dataDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{5A39FD33-B251-5041-8B88-5B33BFD6B2FC}" name="Column5" dataDxfId="38"/>
+    <tableColumn id="12" xr3:uid="{CF21C245-91A7-BB49-9363-D365711ABDF3}" name="Column6" dataDxfId="37"/>
+    <tableColumn id="13" xr3:uid="{B44C18CE-6E00-724D-B4CD-609ADE475EB9}" name="Column7" dataDxfId="36"/>
+    <tableColumn id="14" xr3:uid="{901CE9F9-D8E2-2E46-9384-039CDF6A0ABF}" name="Column8" dataDxfId="35"/>
+    <tableColumn id="15" xr3:uid="{964E2ED5-56C5-014E-BF41-7C68744CD8FA}" name="Column9" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{BDC3BBC8-C722-A94E-89BC-53601B603859}" name="Column10" dataDxfId="33"/>
+    <tableColumn id="17" xr3:uid="{6085284D-3498-D640-B82F-39D5127439B9}" name="Column11" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{78200D4B-54DE-294C-A2EC-E7A9132DE4A6}" name="Table6" displayName="Table6" ref="A1:C15" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:C15" xr:uid="{155EBD5E-3DA9-7C4C-98B7-91D73ABBCBEA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{AE3CEFB8-A81B-1945-B935-54D9C303AE90}" name="XP" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{BC117F6B-7A72-794E-A7A9-35C1983CB4DB}" name="Level" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{B8412833-42B8-AC4F-8B3F-0E354215D314}" name="Expertise" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{26ECF4A8-7727-1C46-A7B9-8B557DBD00C1}" name="Table10" displayName="Table10" ref="E1:G14" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="E1:G14" xr:uid="{5644FF1C-D713-604E-8E6F-FA601D66BB9F}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{3666EECD-8766-9142-ADF8-3E0E7512115A}" name="Rank" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{73A0B26C-75CB-ED4F-882C-B1AFE5834235}" name="XP" dataDxfId="24">
       <calculatedColumnFormula>F1+G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{51D4A3E4-3DB9-124B-945D-53E6771F1494}" name="XP_ADD" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4895560C-F7FE-264B-9757-BE94C044D54A}" name="Table13" displayName="Table13" ref="I1:L10" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="I1:L10" xr:uid="{8133F681-167D-F049-9826-3312B39E818C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{48A52C97-1904-CD46-80EA-064E09AAF69B}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{38C00C01-3C20-6D47-A5EB-F3A7BEAEC051}" name="Armor" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{EE898554-2F74-C149-B88C-AF12B4508BF3}" name="INI" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F349EE49-F581-BB4C-8F32-35834A1E04BF}" name="Movement" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B7E950BC-4606-8A49-8B91-DEC3B6A9BAA8}" name="Table1315" displayName="Table1315" ref="O1:S10" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="O1:S10" xr:uid="{2A1B3E48-F34C-174D-8FBD-7A506A55BF41}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{94233833-88FD-1A4A-B618-9CFA4BB779D8}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{65FF8683-7DAD-9541-BA3F-72C23BBAA524}" name="Armor" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{0071B3F4-3F31-4840-9341-10D8AB7C1EFB}" name="INI" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{0770FF4B-C599-B144-8E09-19F1C8E836A2}" name="Movement" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{E5FDFDB6-BBF2-DC42-8D85-B230C4C6AECD}" name="Dodge" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="280" dataDxfId="279">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77A7907B-AE9B-314A-992E-E0A4617DC74E}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowCount="1" headerRowDxfId="288" dataDxfId="287">
   <autoFilter ref="A1:O6" xr:uid="{60B8AEF8-2C69-5B48-9C1A-DCFAB2AD983D}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -7026,35 +7029,35 @@
     <filterColumn colId="14" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="278" totalsRowDxfId="277"/>
-    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="276" totalsRowDxfId="275">
+    <tableColumn id="1" xr3:uid="{1782BAF0-6CF8-464E-925A-9A2A96505774}" name="Name" totalsRowLabel="Total XP" dataDxfId="286" totalsRowDxfId="285"/>
+    <tableColumn id="2" xr3:uid="{9BCB48E4-DBE3-5942-8D75-286CC1057954}" name="Code" totalsRowFunction="custom" dataDxfId="284" totalsRowDxfId="283">
       <totalsRowFormula>SUM(Table1[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="274" totalsRowDxfId="273">
+    <tableColumn id="3" xr3:uid="{CA9C36A3-6157-BA4C-AA92-67A100D27609}" name="Bought" totalsRowFunction="custom" dataDxfId="282" totalsRowDxfId="281">
       <totalsRowFormula>COUNTIF(Table1[Bought], "Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="272" totalsRowDxfId="271">
+    <tableColumn id="4" xr3:uid="{CA0D2A17-FBA4-5E4F-B125-4C070D8788C4}" name="Skilled" totalsRowFunction="custom" dataDxfId="280" totalsRowDxfId="279">
       <totalsRowFormula>COUNTIF(Table1[Skilled], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="270" totalsRowDxfId="269">
+    <tableColumn id="5" xr3:uid="{A7566064-06E8-8E44-98CD-C54733321306}" name="Expert" totalsRowFunction="custom" dataDxfId="278" totalsRowDxfId="277">
       <totalsRowFormula>COUNTIF(Table1[Expert], "Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="268" totalsRowDxfId="267"/>
-    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="266" totalsRowDxfId="265"/>
-    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="264" totalsRowDxfId="263"/>
-    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="262" totalsRowDxfId="261">
+    <tableColumn id="7" xr3:uid="{2FBFFF7E-FF36-3B4A-B953-C82904D36913}" name="DICE" dataDxfId="276" totalsRowDxfId="275"/>
+    <tableColumn id="8" xr3:uid="{C8BCD9D1-3FE9-3647-A609-5788CD8AB7AD}" name="START" dataDxfId="274" totalsRowDxfId="273"/>
+    <tableColumn id="14" xr3:uid="{6C3C1930-198A-CA42-8563-974CFD7E82BB}" name="RACE" dataDxfId="272" totalsRowDxfId="271"/>
+    <tableColumn id="9" xr3:uid="{22F7BDEA-1AD8-5343-8765-89D3F14F6903}" name="PROF" dataDxfId="270" totalsRowDxfId="269">
       <calculatedColumnFormula>VLOOKUP(PROF,Table7[],Table7[[#Headers],[STR]],FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="260" totalsRowDxfId="259"/>
-    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="258" totalsRowDxfId="257"/>
-    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="256" totalsRowDxfId="255"/>
-    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="254" totalsRowDxfId="253">
+    <tableColumn id="10" xr3:uid="{2075AAEA-B6EA-0E43-A822-11D62BB1BE24}" name="EQ." dataDxfId="268" totalsRowDxfId="267"/>
+    <tableColumn id="6" xr3:uid="{0AD5C3C3-BBF8-D24A-B215-5FCDD41C3025}" name="Weapons" dataDxfId="266" totalsRowDxfId="265"/>
+    <tableColumn id="11" xr3:uid="{97BDD625-37C1-2848-8E6B-2AB44DBA88F9}" name="BONUS" dataDxfId="264" totalsRowDxfId="263"/>
+    <tableColumn id="12" xr3:uid="{5E1E8E4D-E523-3C4D-9FE9-AB8CFD8BE3A1}" name="TOTAL" dataDxfId="262" totalsRowDxfId="261">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[START]:[BONUS]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="252" totalsRowDxfId="251">
+    <tableColumn id="13" xr3:uid="{B331F653-0EE6-C649-97EB-5E84A49DCF84}" name="STAT" dataDxfId="260" totalsRowDxfId="259">
       <calculatedColumnFormula>ROUNDUP(Table1[[#This Row],[TOTAL]]/10, 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="250" totalsRowDxfId="249">
+    <tableColumn id="15" xr3:uid="{E9A47421-916C-7F48-A22E-F14FB2F5F313}" name="Roll" dataDxfId="258" totalsRowDxfId="257">
       <calculatedColumnFormula>Table1[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; IF(Table1[[#This Row],[Skilled]] = "Yes",LVL,0) + IF(Table1[[#This Row],[Expert]]="Yes",EXPERTISE,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7063,35 +7066,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="244" dataDxfId="243">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95EE0547-B330-BF4F-8608-1382B945C7E0}" name="Table2" displayName="Table2" ref="A1:K35" totalsRowCount="1" headerRowDxfId="256" dataDxfId="255">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="242" totalsRowDxfId="241"/>
-    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="240" totalsRowDxfId="239">
+    <tableColumn id="1" xr3:uid="{488891F9-A380-104B-B93D-C02458C8FA29}" name="Name" totalsRowLabel="Total" dataDxfId="254" totalsRowDxfId="253"/>
+    <tableColumn id="2" xr3:uid="{93A5AD0F-341D-E245-AF40-3EAD21FC48A0}" name="Statistic" totalsRowFunction="custom" dataDxfId="252" totalsRowDxfId="251">
       <totalsRowFormula>SUM(Table2[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="238" totalsRowDxfId="237">
+    <tableColumn id="3" xr3:uid="{FE35E503-2EA7-A343-99C7-C5C5899FC054}" name="Bought" totalsRowFunction="custom" dataDxfId="250" totalsRowDxfId="249">
       <totalsRowFormula>COUNTIF(Table2[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="236" totalsRowDxfId="235">
+    <tableColumn id="4" xr3:uid="{98DF01DF-054B-914B-974E-8AF998FF4E53}" name="Skilled" totalsRowFunction="custom" dataDxfId="248" totalsRowDxfId="247">
       <totalsRowFormula>COUNTIF(Table2[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="234" totalsRowDxfId="233">
+    <tableColumn id="5" xr3:uid="{C62BCE48-B5FF-6A47-AA15-86C6BDEC45D6}" name="Professional" totalsRowFunction="custom" dataDxfId="246" totalsRowDxfId="245">
       <totalsRowFormula>COUNTIF(Table2[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="232" totalsRowDxfId="231">
+    <tableColumn id="6" xr3:uid="{D9F29455-4DAB-6A40-8A17-0CA575126A74}" name="Expert" totalsRowFunction="custom" dataDxfId="244" totalsRowDxfId="243">
       <totalsRowFormula>COUNTIF(Table2[Expert],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="230" totalsRowDxfId="229">
+    <tableColumn id="8" xr3:uid="{D32EF9E9-A539-8B41-871A-B89EA355F651}" name="DICE" dataDxfId="242" totalsRowDxfId="241">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="228" totalsRowDxfId="227">
+    <tableColumn id="9" xr3:uid="{C1A4C07D-E510-A944-A562-B1C910EB2898}" name="STAT" dataDxfId="240" totalsRowDxfId="239">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Skilled]] = "YES",VLOOKUP(Table2[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="226" totalsRowDxfId="225">
+    <tableColumn id="10" xr3:uid="{0B24A7B2-5A09-214A-A140-1714C5D361A4}" name="LEVEL" dataDxfId="238" totalsRowDxfId="237">
       <calculatedColumnFormula>IF(Table2[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="224" totalsRowDxfId="223"/>
-    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="222" totalsRowDxfId="221">
+    <tableColumn id="11" xr3:uid="{356CD671-6933-4E45-8BBD-9402E92B4106}" name="EXP." dataDxfId="236" totalsRowDxfId="235"/>
+    <tableColumn id="12" xr3:uid="{28D63D3F-7CDE-BD4A-8D01-F7FC776D2F9A}" name="TOTAL" dataDxfId="234" totalsRowDxfId="233">
       <calculatedColumnFormula>Table2[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7100,35 +7103,35 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="218" dataDxfId="217">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{3AD258F9-46CB-0748-BE8B-849C3A884EB8}" name="Table217" displayName="Table217" ref="A1:K17" totalsRowCount="1" headerRowDxfId="232" dataDxfId="231">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="216" totalsRowDxfId="215"/>
-    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="214" totalsRowDxfId="213">
+    <tableColumn id="1" xr3:uid="{87BB9924-DBC9-8B4C-98A3-1C64069A7F16}" name="Name" totalsRowLabel="Total" dataDxfId="230" totalsRowDxfId="229"/>
+    <tableColumn id="2" xr3:uid="{C7B0EDCD-3736-3443-8494-C77B335F22CF}" name="Statistic" totalsRowFunction="custom" dataDxfId="228" totalsRowDxfId="227">
       <totalsRowFormula>SUM(Table217[[#Totals],[Bought]:[Expert]])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="212" totalsRowDxfId="211">
+    <tableColumn id="3" xr3:uid="{DB3431C6-D27C-1F4F-A527-26C5173FD0AF}" name="Bought" totalsRowFunction="custom" dataDxfId="226" totalsRowDxfId="225">
       <totalsRowFormula>COUNTIF(Table217[Bought],"Yes") * 2</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="210" totalsRowDxfId="209">
+    <tableColumn id="4" xr3:uid="{16801E44-9587-1F43-A05D-A6A621B7D92E}" name="Skilled" totalsRowFunction="custom" dataDxfId="224" totalsRowDxfId="223">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 3</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="208" totalsRowDxfId="207">
+    <tableColumn id="5" xr3:uid="{831CD727-7203-A442-90B2-7454C8FF3483}" name="Professional" totalsRowFunction="custom" dataDxfId="222" totalsRowDxfId="221">
       <totalsRowFormula>COUNTIF(Table217[Professional],"Yes") * 4</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="206" totalsRowDxfId="205">
+    <tableColumn id="6" xr3:uid="{29019F01-4B37-FD41-BF61-39E9F80E0220}" name="Expert" totalsRowFunction="custom" dataDxfId="220" totalsRowDxfId="219">
       <totalsRowFormula>COUNTIF(Table217[Skilled],"Yes") * 5</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="204" totalsRowDxfId="203">
+    <tableColumn id="8" xr3:uid="{9DA99A80-D4A2-7245-9FF6-F208EE342709}" name="DICE" dataDxfId="218" totalsRowDxfId="217">
       <calculatedColumnFormula>IF(C2="Yes","1d20","1d10")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="202" totalsRowDxfId="201">
+    <tableColumn id="9" xr3:uid="{C3CB34DA-A904-9C4B-8C33-222761B6D7D2}" name="STAT" dataDxfId="216" totalsRowDxfId="215">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Skilled]] = "YES",VLOOKUP(Table217[[#This Row],[Statistic]],Table1[[Code]:[STAT]],13,FALSE), 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="200" totalsRowDxfId="199">
+    <tableColumn id="10" xr3:uid="{AA0D7124-EB80-8D45-8B3A-B710D5C942D2}" name="LEVEL" dataDxfId="214" totalsRowDxfId="213">
       <calculatedColumnFormula>IF(Table217[[#This Row],[Professional]]="Yes",LVL,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="198" totalsRowDxfId="197"/>
-    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="196" totalsRowDxfId="195">
+    <tableColumn id="11" xr3:uid="{6DA8214E-CFCE-1F48-9C1E-1466DBBCA419}" name="EXP." dataDxfId="212" totalsRowDxfId="211"/>
+    <tableColumn id="12" xr3:uid="{44A80818-EE79-AD41-B43E-D9EA1EB5457F}" name="TOTAL" dataDxfId="210" totalsRowDxfId="209">
       <calculatedColumnFormula>Table217[[#This Row],[DICE]] &amp; " " &amp; CHAR(43) &amp; " " &amp; SUM(H2:J2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7137,24 +7140,24 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="194" dataDxfId="193">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9BF8CF78-37C6-3445-BBF5-327B62B15019}" name="Table9" displayName="Table9" ref="A1:L20" totalsRowCount="1" headerRowDxfId="208" dataDxfId="207">
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="192" totalsRowDxfId="191"/>
-    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="190" totalsRowDxfId="189"/>
-    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="188" totalsRowDxfId="187"/>
-    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="186" totalsRowDxfId="185"/>
-    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="184" totalsRowDxfId="183"/>
-    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="182" totalsRowDxfId="181">
+    <tableColumn id="1" xr3:uid="{AAE218F1-975D-6E4D-A78F-7D9CFE3F2D85}" name="Name" dataDxfId="206" totalsRowDxfId="205"/>
+    <tableColumn id="2" xr3:uid="{D6530EC6-244B-1342-B158-F1BF3AB28116}" name="Rank" dataDxfId="204" totalsRowDxfId="203"/>
+    <tableColumn id="3" xr3:uid="{06E3316B-0582-394A-BC3E-83FCA17E3605}" name="Weapon" dataDxfId="202" totalsRowDxfId="201"/>
+    <tableColumn id="12" xr3:uid="{DFE40438-CA22-3D44-8C0F-517F5D131F5B}" name="Equip." dataDxfId="200" totalsRowDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{D4781ED7-4593-8541-BEFE-6294607C35A6}" name="Special" dataDxfId="198" totalsRowDxfId="197"/>
+    <tableColumn id="10" xr3:uid="{F3DF0F91-E598-724D-9337-DE5DFBDAB49E}" name="TotalRank" dataDxfId="196" totalsRowDxfId="195">
       <calculatedColumnFormula>SUM(Table9[[#This Row],[Rank]:[Special]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="180" totalsRowDxfId="179"/>
-    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="178" totalsRowDxfId="177"/>
-    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="176" totalsRowDxfId="175"/>
-    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="174" totalsRowDxfId="173"/>
-    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="172" totalsRowDxfId="171">
+    <tableColumn id="5" xr3:uid="{0D510646-E339-4D49-AC64-0E9893C8F3DB}" name="Factor" dataDxfId="194" totalsRowDxfId="193"/>
+    <tableColumn id="6" xr3:uid="{7B2CF3F3-396A-4840-8DAE-8804AB543E30}" name="Prefix" dataDxfId="192" totalsRowDxfId="191"/>
+    <tableColumn id="7" xr3:uid="{83E2A74F-B858-6946-B767-CA721DD0DE12}" name="Postfix" dataDxfId="190" totalsRowDxfId="189"/>
+    <tableColumn id="11" xr3:uid="{ADBF929F-A437-7A42-B5EE-CA1C4C9D4880}" name="CALC" dataDxfId="188" totalsRowDxfId="187"/>
+    <tableColumn id="8" xr3:uid="{0BF9FD32-BE0B-AC4D-B2C3-0AE1CD340401}" name="Result" dataDxfId="186" totalsRowDxfId="185">
       <calculatedColumnFormula>Table9[[#This Row],[Prefix]] &amp; SUM(Table9[[#This Row],[Rank]:[Special]])*Table9[[#This Row],[Factor]] &amp; Table9[[#This Row],[Postfix]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="170" totalsRowDxfId="169">
+    <tableColumn id="9" xr3:uid="{0D1C4892-DA2B-BC49-8BD4-B5FF578B67AD}" name="XP" totalsRowFunction="custom" dataDxfId="184" totalsRowDxfId="183">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Table9[[#This Row],[Rank]],RANK_LOOKUP,2,FALSE),0)</calculatedColumnFormula>
       <totalsRowFormula>SUM(Table9[XP])</totalsRowFormula>
     </tableColumn>
@@ -7164,145 +7167,145 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="168" dataDxfId="167">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AE27B7B0-F0E3-E243-8EFB-88A5ADED5F80}" name="Table12" displayName="Table12" ref="A2:V22" totalsRowCount="1" headerRowDxfId="182" dataDxfId="181">
   <autoFilter ref="A2:V21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="166" totalsRowDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="164" totalsRowDxfId="163"/>
-    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="162" totalsRowDxfId="161"/>
-    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
+    <tableColumn id="1" xr3:uid="{D6AFC6F4-56C5-B94E-AAD7-C07A92ACC04B}" name="Location" totalsRowLabel="Total" dataDxfId="180" totalsRowDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{6EC0F666-8D61-D644-BCAC-A4117F1781F2}" name="Name" dataDxfId="178" totalsRowDxfId="177"/>
+    <tableColumn id="3" xr3:uid="{FDC3F4BD-A2FD-6648-8EE1-D8B4F6108857}" name="Enabled" dataDxfId="176" totalsRowDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{6BD01D3C-E517-274F-87F1-974D9398BA72}" name="DMG" totalsRowFunction="custom" dataDxfId="174" totalsRowDxfId="173">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
+    <tableColumn id="5" xr3:uid="{1E15D738-D79A-244C-851E-E57C038AF8E0}" name="Stamina" totalsRowFunction="custom" dataDxfId="172" totalsRowDxfId="171">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="155">
+    <tableColumn id="6" xr3:uid="{4356B910-7F96-084F-A9BD-24B81A1D65C2}" name="Crit" totalsRowFunction="custom" dataDxfId="170" totalsRowDxfId="169">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
+    <tableColumn id="7" xr3:uid="{34D53967-FE59-F548-9D59-EBF5A5FF3B80}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="168" totalsRowDxfId="167">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
+    <tableColumn id="8" xr3:uid="{D37EF853-D2F7-214A-83D0-086F59F00DC8}" name="Splash" totalsRowFunction="custom" dataDxfId="166" totalsRowDxfId="165">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="9" xr3:uid="{5DE5E55B-8076-214A-88F0-165C9D5589AB}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="164" totalsRowDxfId="163">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
+    <tableColumn id="10" xr3:uid="{1CB3B9C9-B073-D24E-A036-62CB1C097282}" name="Exprt." totalsRowFunction="custom" dataDxfId="162" totalsRowDxfId="161">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
+    <tableColumn id="11" xr3:uid="{80F0809C-2100-2247-9ADB-01576F8CA19B}" name="Mvmt." totalsRowFunction="custom" dataDxfId="160" totalsRowDxfId="159">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
+    <tableColumn id="12" xr3:uid="{100B3365-5937-EA45-886B-E3DFD195C5B2}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="158" totalsRowDxfId="157">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
+    <tableColumn id="13" xr3:uid="{5594E278-21E8-A14C-ADBC-E8B9C800F93B}" name="Armor" totalsRowFunction="custom" dataDxfId="156" totalsRowDxfId="155">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
+    <tableColumn id="14" xr3:uid="{CB23327D-EFF8-A342-A9DE-65E1B7BC4BE3}" name="Aura" totalsRowFunction="custom" dataDxfId="154" totalsRowDxfId="153">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="138" totalsRowDxfId="137">
+    <tableColumn id="15" xr3:uid="{B0438D6C-EBB6-7D45-9116-94CBEFB8D439}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="152" totalsRowDxfId="151">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="16" xr3:uid="{0C0196AE-E23B-644F-8625-5FFF406E7239}" name="INI" totalsRowFunction="custom" dataDxfId="150" totalsRowDxfId="149">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="134" totalsRowDxfId="133">
+    <tableColumn id="17" xr3:uid="{0CE5E91F-F441-3541-ACBF-9B6E8F3D32BE}" name="STR" totalsRowFunction="custom" dataDxfId="148" totalsRowDxfId="147">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="132" totalsRowDxfId="131">
+    <tableColumn id="18" xr3:uid="{CE0B6C3F-7775-4E44-8CAD-EB5E7ED373D8}" name="AGI" totalsRowFunction="custom" dataDxfId="146" totalsRowDxfId="145">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="130" totalsRowDxfId="129">
+    <tableColumn id="19" xr3:uid="{DD3C9C3F-31EB-7F48-83CE-9607AADE61CE}" name="INU" totalsRowFunction="custom" dataDxfId="144" totalsRowDxfId="143">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="128" totalsRowDxfId="127">
+    <tableColumn id="20" xr3:uid="{93C1F38D-CC0D-9F4E-AFB2-B3B60FA2E230}" name="CHA" totalsRowFunction="custom" dataDxfId="142" totalsRowDxfId="141">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="126" totalsRowDxfId="125">
+    <tableColumn id="21" xr3:uid="{86EE74A2-267E-5244-ADE0-325523D5DAF0}" name="PER" totalsRowFunction="custom" dataDxfId="140" totalsRowDxfId="139">
       <totalsRowFormula>SUMIF(Table12[Enabled],"Yes",Table12[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="23" xr3:uid="{DBC245A7-FD67-824A-B01B-CDA3F14F2832}" name="Description" dataDxfId="138" totalsRowDxfId="137"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{AF77A677-2D80-6443-A05D-655858194459}" name="Table1218" displayName="Table1218" ref="A2:AA22" totalsRowCount="1" headerRowDxfId="136" dataDxfId="135">
   <autoFilter ref="A2:AA21" xr:uid="{B162921F-791F-624A-81ED-6E2D19AD3439}"/>
   <tableColumns count="27">
-    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="110" totalsRowDxfId="109"/>
-    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="108" totalsRowDxfId="107"/>
-    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
+    <tableColumn id="2" xr3:uid="{E56D130D-99FD-2946-944B-A51CABD832AC}" name="Name" dataDxfId="134" totalsRowDxfId="133"/>
+    <tableColumn id="3" xr3:uid="{BC699B2A-E436-DD44-83B3-3C0AAF24FC76}" name="Enabled" dataDxfId="132" totalsRowDxfId="131"/>
+    <tableColumn id="25" xr3:uid="{DE34C382-31A8-114A-B47A-484AE873AF1F}" name="Type" dataDxfId="130" totalsRowDxfId="129"/>
+    <tableColumn id="24" xr3:uid="{8B9165EA-408B-0644-BD6C-7AF334F6ACD8}" name="#" dataDxfId="128" totalsRowDxfId="127"/>
+    <tableColumn id="23" xr3:uid="{ECE39BFF-43E4-2240-9FE3-1B3C6A2CD436}" name="Dice" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="26" xr3:uid="{3AA6F904-F0B0-9449-8DDC-3027E3A4BE30}" name="Constant" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="22" xr3:uid="{E209AE0C-255B-2449-B26F-DEE2F0E8CF23}" name="INI" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{B47ADA7A-75BF-8845-B1F4-51CE35E67214}" name="DMG" totalsRowFunction="custom" dataDxfId="120" totalsRowDxfId="119">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
+    <tableColumn id="5" xr3:uid="{A56869D3-EF92-704B-9000-BD3D1B486A75}" name="Stamina" totalsRowFunction="custom" dataDxfId="118" totalsRowDxfId="117">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Stamina])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
+    <tableColumn id="6" xr3:uid="{4399BDD2-0759-9445-AC6C-05B3B499C492}" name="Crit" totalsRowFunction="custom" dataDxfId="116" totalsRowDxfId="115">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
+    <tableColumn id="7" xr3:uid="{D6B38714-0E9C-D649-BFE5-49596BA9BF1C}" name="Crit DMG" totalsRowFunction="custom" dataDxfId="114" totalsRowDxfId="113">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Crit DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
+    <tableColumn id="8" xr3:uid="{9519CA17-112B-224B-952F-51AC027496F6}" name="Splash" totalsRowFunction="custom" dataDxfId="112" totalsRowDxfId="111">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
+    <tableColumn id="9" xr3:uid="{429CA498-92FA-A74E-BC4B-6663D9D8CABA}" name="Splash _x000a_DMG" totalsRowFunction="custom" dataDxfId="110" totalsRowDxfId="109">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Splash 
 DMG])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
+    <tableColumn id="10" xr3:uid="{37D7FA16-18E2-6842-926B-EFE8BBF1B1DF}" name="Exprt." totalsRowFunction="custom" dataDxfId="108" totalsRowDxfId="107">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Exprt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91">
+    <tableColumn id="11" xr3:uid="{25A44E44-0A05-AC4D-8AB4-EE74A0BFFAED}" name="Mvmt." totalsRowFunction="custom" dataDxfId="106" totalsRowDxfId="105">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Mvmt.])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="89">
+    <tableColumn id="12" xr3:uid="{9162589E-4452-B14F-84BF-BA8ADF153104}" name="Extra _x000a_Attack" totalsRowFunction="custom" dataDxfId="104" totalsRowDxfId="103">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Extra 
 Attack])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
+    <tableColumn id="13" xr3:uid="{76EB8C7B-5213-1A46-B243-DA8120143C97}" name="Armor" totalsRowFunction="custom" dataDxfId="102" totalsRowDxfId="101">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Armor])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
+    <tableColumn id="14" xr3:uid="{7694EA49-563E-1E43-AAAE-55BA11A1C48C}" name="Aura" totalsRowFunction="custom" dataDxfId="100" totalsRowDxfId="99">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Aura])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="15" xr3:uid="{8C961621-41FF-2948-9B22-39E0CDEE8A7E}" name="Directed Strike" totalsRowFunction="custom" dataDxfId="98" totalsRowDxfId="97">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[Directed Strike])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="82" totalsRowDxfId="81">
+    <tableColumn id="1" xr3:uid="{7A2D1CD4-98D1-6F4E-B0A1-5BF54AE2F9B7}" name="AP" totalsRowFunction="custom" dataDxfId="96" totalsRowDxfId="95">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="80" totalsRowDxfId="79">
+    <tableColumn id="16" xr3:uid="{C1A5919F-5B4B-C442-8BBB-F57C37FB2FEE}" name="INI2" totalsRowFunction="custom" dataDxfId="94" totalsRowDxfId="93">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INI2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="78" totalsRowDxfId="77">
+    <tableColumn id="17" xr3:uid="{93F7A8DA-DC28-864F-8239-7E93AD5F7188}" name="STR" totalsRowFunction="custom" dataDxfId="92" totalsRowDxfId="91">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[STR])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="76" totalsRowDxfId="75">
+    <tableColumn id="18" xr3:uid="{5E33A6F3-45E5-B14F-8A37-AE470CDA5006}" name="AGI" totalsRowFunction="custom" dataDxfId="90" totalsRowDxfId="89">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[AGI])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
+    <tableColumn id="19" xr3:uid="{47674090-5365-2D4F-B2B6-FA5831CE6013}" name="INU" totalsRowFunction="custom" dataDxfId="88" totalsRowDxfId="87">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[INU])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="72" totalsRowDxfId="71">
+    <tableColumn id="20" xr3:uid="{180A191A-7E92-F146-BDD6-AFE6A0673A36}" name="CHA" totalsRowFunction="custom" dataDxfId="86" totalsRowDxfId="85">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[CHA])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="70" totalsRowDxfId="69">
+    <tableColumn id="21" xr3:uid="{66B45B9E-7117-9F4B-9D86-B2A72231074D}" name="PER" totalsRowFunction="custom" dataDxfId="84" totalsRowDxfId="83">
       <totalsRowFormula>SUMIF(Table1218[Enabled],"Yes",Table1218[PER])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="68" totalsRowDxfId="67">
+    <tableColumn id="27" xr3:uid="{D8540632-FC51-0D4F-8B9C-2BD5CF3D48BD}" name="Result" dataDxfId="82" totalsRowDxfId="81">
       <calculatedColumnFormula>Table1218[[#This Row],[Name]] &amp; ": " &amp; Table1218[[#This Row],['#]] &amp; "d" &amp; Table1218[[#This Row],[Dice]] &amp; "+" &amp; Table1218[[#This Row],[Constant]] &amp; "+" &amp; IF(Table1218[[#This Row],[Type]]="Melee",STR, 0) + IF(Table1218[[#This Row],[Type]]="Ranged",AGI, 0) + IF(Table1218[[#This Row],[Type]]="Magic",INU,0) &amp; FEAT_DMG &amp; "  INI:" &amp; Table1218[[#This Row],[INI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7311,45 +7314,45 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{A3546F50-DAF2-5C48-8B21-E1774EDED48A}" name="Table18" displayName="Table18" ref="A1:G39" totalsRowCount="1" dataDxfId="80">
   <autoFilter ref="A1:G38" xr:uid="{AB73435D-1DA5-9D4D-A3C2-6FDD431734AF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="60" totalsRowDxfId="59">
+    <tableColumn id="1" xr3:uid="{D3222AC0-22D0-884F-9ACB-057509AFE854}" name="Name" totalsRowLabel="Total" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{599153C8-C04F-1E43-B915-4EFDDAA10575}" name="Type" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{EDEC5936-D857-284D-9D36-956AFDD7675E}" name="Rank" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{82D28D72-C87E-9B4A-8903-1B6710B17B31}" name="Level" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{5BDFB085-66F9-084D-91F0-257513610F8E}" name="Enabled" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{DEE6DAA2-9721-9744-96FC-C77D47077D88}" name="XP" totalsRowFunction="custom" dataDxfId="74" totalsRowDxfId="73">
       <totalsRowFormula>SUMIF(Table18[Enabled],"=Yes",Table18[XP])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{6625A40C-80FB-224A-BEEB-A3A7B1CB18A8}" name="Description" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B2E8E73B-2220-B14A-B34D-B2A2D31C87D8}" name="Table79" displayName="Table79" ref="A1:R33" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:R33" xr:uid="{9A133D1A-1408-9A4D-B1A8-016FBFDDF397}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="52"/>
-    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="47"/>
-    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="46"/>
-    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="45"/>
-    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="44"/>
-    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="40"/>
-    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="39"/>
-    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{8A7DFF72-A39A-0242-878A-A43522EFE24F}" name="Name" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{1E867DD1-2259-0F42-8DE6-24E3B57FB023}" name="STR" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{8B62FCC6-44AF-3745-9B75-FB2CB998E35C}" name="AGI" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{A2E15CA6-9E2A-1344-A6EF-BEDA148248DE}" name="INU" dataDxfId="66"/>
+    <tableColumn id="18" xr3:uid="{403E2468-C5FB-E940-8CC9-FA9C085C6CA2}" name="CHA" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{6997B2AE-7002-964B-8C6B-EF465FAF82EA}" name="PER" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{052C7C9D-EB8C-4640-8FD3-30EDB4571A40}" name="HP Factor" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{CB645AD0-0F06-3B43-B1B3-E6D435FC9BBC}" name="XP" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{187B0803-25C6-8643-B93A-30A61D579311}" name="Column2" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{D5FA0FDA-C465-914B-9F10-275BED958455}" name="Column3" dataDxfId="60"/>
+    <tableColumn id="10" xr3:uid="{E91B6F4A-B437-F54C-B449-1103036C5B36}" name="Column4" dataDxfId="59"/>
+    <tableColumn id="11" xr3:uid="{916C933F-3F60-A640-86EB-CA547F95B9D7}" name="Column5" dataDxfId="58"/>
+    <tableColumn id="12" xr3:uid="{C2E89ECD-3CE6-DF4A-8BED-C99396B26E38}" name="Column6" dataDxfId="57"/>
+    <tableColumn id="13" xr3:uid="{584B2452-4E2B-914C-AEF2-657C6BD496DB}" name="Column7" dataDxfId="56"/>
+    <tableColumn id="14" xr3:uid="{ACFF4731-2977-724C-BEA0-BF0E750D4D37}" name="Column8" dataDxfId="55"/>
+    <tableColumn id="15" xr3:uid="{13FA1501-6896-C04C-AC18-9E866978A015}" name="Column9" dataDxfId="54"/>
+    <tableColumn id="16" xr3:uid="{8673696E-720C-DF47-836C-C07175E535C6}" name="Column10" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{2177733D-A9EC-574A-81A2-DCB7E8D34927}" name="Column11" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7656,7 +7659,7 @@
   <dimension ref="B1:BG291"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AE36" sqref="AE36:AW40"/>
+      <selection activeCell="AP19" sqref="AP19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7781,11 +7784,11 @@
       <c r="N4" s="106"/>
       <c r="O4" s="106"/>
       <c r="S4" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z4" s="30"/>
       <c r="AB4" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI4" s="30"/>
       <c r="AJ4" s="31"/>
@@ -7834,14 +7837,14 @@
     <row r="6" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F6" s="32"/>
       <c r="AN6" s="116" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AO6" s="116"/>
       <c r="AP6" s="116"/>
       <c r="AQ6" s="116"/>
       <c r="AR6" s="31"/>
       <c r="AS6" s="116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AT6" s="116"/>
       <c r="AU6" s="116"/>
@@ -7857,58 +7860,58 @@
     </row>
     <row r="8" spans="2:57" ht="10" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="95"/>
       <c r="F8" s="32"/>
       <c r="H8" s="103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I8" s="104"/>
       <c r="J8" s="104"/>
       <c r="K8" s="105"/>
       <c r="M8" s="103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N8" s="104"/>
       <c r="O8" s="104"/>
       <c r="P8" s="105"/>
       <c r="R8" s="103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S8" s="104"/>
       <c r="T8" s="104"/>
       <c r="U8" s="105"/>
       <c r="W8" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X8" s="104"/>
       <c r="Y8" s="104"/>
       <c r="Z8" s="105"/>
       <c r="AB8" s="103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC8" s="104"/>
       <c r="AD8" s="104"/>
       <c r="AE8" s="105"/>
       <c r="AF8" s="31"/>
       <c r="AG8" s="103" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AH8" s="104"/>
       <c r="AI8" s="104"/>
       <c r="AJ8" s="105"/>
       <c r="AK8" s="31"/>
       <c r="AL8" s="103" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AM8" s="104"/>
       <c r="AN8" s="104"/>
       <c r="AO8" s="105"/>
       <c r="AQ8" s="103" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AR8" s="104"/>
       <c r="AS8" s="104"/>
@@ -8136,7 +8139,7 @@
       <c r="Q13" s="41"/>
       <c r="R13" s="36"/>
       <c r="S13" s="51" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T13" s="40"/>
       <c r="U13" s="40"/>
@@ -8152,7 +8155,7 @@
       <c r="AB13" s="54"/>
       <c r="AC13" s="36"/>
       <c r="AE13" s="96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AF13" s="96"/>
       <c r="AG13" s="96"/>
@@ -8198,7 +8201,7 @@
       <c r="Q14" s="43"/>
       <c r="R14" s="36"/>
       <c r="S14" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T14" s="42"/>
       <c r="U14" s="42"/>
@@ -8234,7 +8237,7 @@
     </row>
     <row r="15" spans="2:57" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="94"/>
       <c r="D15" s="94"/>
@@ -8259,7 +8262,7 @@
       <c r="Q15" s="43"/>
       <c r="R15" s="36"/>
       <c r="S15" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
@@ -8321,7 +8324,7 @@
       <c r="Q16" s="43"/>
       <c r="R16" s="36"/>
       <c r="S16" s="52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
@@ -8390,7 +8393,7 @@
       <c r="Q17" s="43"/>
       <c r="R17" s="36"/>
       <c r="S17" s="52" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
@@ -8456,7 +8459,7 @@
       <c r="Q18" s="43"/>
       <c r="R18" s="36"/>
       <c r="S18" s="52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
@@ -8524,7 +8527,7 @@
       <c r="Q19" s="43"/>
       <c r="R19" s="36"/>
       <c r="S19" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T19" s="42"/>
       <c r="U19" s="42"/>
@@ -8583,7 +8586,7 @@
       <c r="Q20" s="43"/>
       <c r="R20" s="36"/>
       <c r="S20" s="52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
@@ -8642,7 +8645,7 @@
       <c r="Q21" s="43"/>
       <c r="R21" s="36"/>
       <c r="S21" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
@@ -8685,7 +8688,7 @@
     </row>
     <row r="22" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="94"/>
       <c r="D22" s="94"/>
@@ -8710,7 +8713,7 @@
       <c r="Q22" s="43"/>
       <c r="R22" s="36"/>
       <c r="S22" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T22" s="42"/>
       <c r="U22" s="42"/>
@@ -8725,7 +8728,7 @@
       <c r="AB22" s="56"/>
       <c r="AC22" s="36"/>
       <c r="AE22" s="96" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF22" s="96"/>
       <c r="AG22" s="96"/>
@@ -8781,7 +8784,7 @@
       <c r="Q23" s="43"/>
       <c r="R23" s="36"/>
       <c r="S23" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T23" s="42"/>
       <c r="U23" s="42"/>
@@ -8848,7 +8851,7 @@
       <c r="Q24" s="43"/>
       <c r="R24" s="36"/>
       <c r="S24" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
@@ -8915,7 +8918,7 @@
       <c r="Q25" s="43"/>
       <c r="R25" s="36"/>
       <c r="S25" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="T25" s="42"/>
       <c r="U25" s="42"/>
@@ -8931,7 +8934,7 @@
       <c r="AC25" s="36"/>
       <c r="AD25" s="36"/>
       <c r="AE25" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF25" s="36"/>
       <c r="AG25" s="36"/>
@@ -8987,7 +8990,7 @@
       <c r="Q26" s="43"/>
       <c r="R26" s="36"/>
       <c r="S26" s="57" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T26" s="42"/>
       <c r="U26" s="42"/>
@@ -9004,7 +9007,7 @@
       <c r="AC26" s="36"/>
       <c r="AD26" s="36"/>
       <c r="AE26" s="118" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF26" s="118"/>
       <c r="AG26" s="118"/>
@@ -9120,7 +9123,7 @@
       <c r="Q28" s="43"/>
       <c r="R28" s="36"/>
       <c r="S28" s="98" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T28" s="99"/>
       <c r="U28" s="99"/>
@@ -9134,7 +9137,7 @@
       <c r="AC28" s="36"/>
       <c r="AD28" s="36"/>
       <c r="AE28" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF28" s="36"/>
       <c r="AG28" s="36"/>
@@ -9164,7 +9167,7 @@
     </row>
     <row r="29" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
@@ -9237,7 +9240,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,19,1)</f>
-        <v>Torture</v>
+        <v>Haggle</v>
       </c>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -9253,13 +9256,13 @@
       <c r="Q30" s="43"/>
       <c r="R30" s="36"/>
       <c r="S30" s="60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="T30" s="61"/>
       <c r="U30" s="61"/>
       <c r="V30" s="61"/>
       <c r="W30" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X30" s="61"/>
       <c r="Y30" s="73" t="str">
@@ -9322,13 +9325,13 @@
       <c r="Q31" s="43"/>
       <c r="R31" s="36"/>
       <c r="S31" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T31" s="65"/>
       <c r="U31" s="65"/>
       <c r="V31" s="65"/>
       <c r="W31" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X31" s="65"/>
       <c r="Y31" s="73" t="str">
@@ -9391,13 +9394,13 @@
       <c r="Q32" s="43"/>
       <c r="R32" s="36"/>
       <c r="S32" s="64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="T32" s="65"/>
       <c r="U32" s="65"/>
       <c r="V32" s="65"/>
       <c r="W32" s="66" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X32" s="65"/>
       <c r="Y32" s="73" t="str">
@@ -9463,13 +9466,13 @@
       <c r="Q33" s="43"/>
       <c r="R33" s="36"/>
       <c r="S33" s="64" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T33" s="65"/>
       <c r="U33" s="65"/>
       <c r="V33" s="65"/>
       <c r="W33" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X33" s="65"/>
       <c r="Y33" s="73" t="str">
@@ -9482,7 +9485,7 @@
       <c r="AC33" s="36"/>
       <c r="AD33" s="36"/>
       <c r="AE33" s="96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF33" s="96"/>
       <c r="AG33" s="96"/>
@@ -9534,13 +9537,13 @@
       <c r="Q34" s="43"/>
       <c r="R34" s="36"/>
       <c r="S34" s="64" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="T34" s="65"/>
       <c r="U34" s="65"/>
       <c r="V34" s="65"/>
       <c r="W34" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X34" s="65"/>
       <c r="Y34" s="73" t="str">
@@ -9583,7 +9586,7 @@
       <c r="G35" s="36"/>
       <c r="H35" s="46" t="str">
         <f>INDEX(Skills!$A$1:$K$34,24,1)</f>
-        <v>Culture</v>
+        <v>Wilderness Surv.</v>
       </c>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -9599,13 +9602,13 @@
       <c r="Q35" s="43"/>
       <c r="R35" s="36"/>
       <c r="S35" s="64" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="T35" s="65"/>
       <c r="U35" s="65"/>
       <c r="V35" s="65"/>
       <c r="W35" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X35" s="65"/>
       <c r="Y35" s="73" t="str">
@@ -9646,7 +9649,7 @@
     </row>
     <row r="36" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="94"/>
       <c r="D36" s="94"/>
@@ -9670,13 +9673,13 @@
       <c r="Q36" s="43"/>
       <c r="R36" s="36"/>
       <c r="S36" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="T36" s="65"/>
       <c r="U36" s="65"/>
       <c r="V36" s="65"/>
       <c r="W36" s="66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X36" s="65"/>
       <c r="Y36" s="73" t="str">
@@ -9745,13 +9748,13 @@
       <c r="Q37" s="43"/>
       <c r="R37" s="36"/>
       <c r="S37" s="64" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="T37" s="65"/>
       <c r="U37" s="65"/>
       <c r="V37" s="65"/>
       <c r="W37" s="66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="X37" s="65"/>
       <c r="Y37" s="73" t="str">
@@ -9764,8 +9767,8 @@
       <c r="AC37" s="36"/>
       <c r="AD37" s="36"/>
       <c r="AE37" s="117" t="str">
-        <f>"Strength: " &amp; Statistics!$O3</f>
-        <v>Strength: 1d10 + 0</v>
+        <f>"Agility: " &amp; Statistics!$O3</f>
+        <v>Agility: 1d10 + 0</v>
       </c>
       <c r="AF37" s="117"/>
       <c r="AG37" s="117"/>
@@ -9817,13 +9820,13 @@
       <c r="Q38" s="43"/>
       <c r="R38" s="36"/>
       <c r="S38" s="64" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="T38" s="65"/>
       <c r="U38" s="65"/>
       <c r="V38" s="65"/>
       <c r="W38" s="66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X38" s="65"/>
       <c r="Y38" s="73" t="str">
@@ -9836,8 +9839,8 @@
       <c r="AC38" s="36"/>
       <c r="AD38" s="36"/>
       <c r="AE38" s="117" t="str">
-        <f>"Strength: " &amp; Statistics!$O4</f>
-        <v>Strength: 1d10 + 0</v>
+        <f>"Intuition: " &amp; Statistics!$O4</f>
+        <v>Intuition: 1d10 + 0</v>
       </c>
       <c r="AF38" s="117"/>
       <c r="AG38" s="117"/>
@@ -9901,8 +9904,8 @@
       <c r="AC39" s="36"/>
       <c r="AD39" s="36"/>
       <c r="AE39" s="117" t="str">
-        <f>"Strength: " &amp; Statistics!$O5</f>
-        <v>Strength: 1d10 + 0</v>
+        <f>"Charisma: " &amp; Statistics!$O5</f>
+        <v>Charisma: 1d10 + 0</v>
       </c>
       <c r="AF39" s="117"/>
       <c r="AG39" s="117"/>
@@ -9939,36 +9942,16 @@
       <c r="D40" s="87"/>
       <c r="E40" s="35"/>
       <c r="G40" s="36"/>
-      <c r="H40" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="100"/>
+      <c r="H40" s="46"/>
+      <c r="Q40" s="43"/>
       <c r="R40" s="36"/>
-      <c r="S40" s="98" t="s">
-        <v>64</v>
-      </c>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="99"/>
-      <c r="W40" s="99"/>
-      <c r="X40" s="99"/>
-      <c r="Y40" s="99"/>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="100"/>
+      <c r="S40" s="46"/>
+      <c r="AB40" s="43"/>
       <c r="AC40" s="36"/>
       <c r="AD40" s="36"/>
       <c r="AE40" s="117" t="str">
-        <f>"Strength: " &amp; Statistics!$O6</f>
-        <v>Strength: 1d10 + 0</v>
+        <f>"Perception: " &amp; Statistics!$O6</f>
+        <v>Perception: 1d10 + 0</v>
       </c>
       <c r="AF40" s="117"/>
       <c r="AG40" s="117"/>
@@ -10002,7 +9985,7 @@
       <c r="D41" s="89"/>
       <c r="E41" s="32"/>
       <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="H41" s="46"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
       <c r="K41" s="36"/>
@@ -10011,8 +9994,10 @@
       <c r="N41" s="36"/>
       <c r="O41" s="36"/>
       <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
+      <c r="Q41" s="43"/>
       <c r="R41" s="36"/>
+      <c r="S41" s="46"/>
+      <c r="AB41" s="43"/>
       <c r="AC41" s="36"/>
       <c r="AD41" s="36"/>
       <c r="AE41" s="36"/>
@@ -10040,27 +10025,31 @@
     </row>
     <row r="42" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="36"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="36"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
+      <c r="H42" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="99"/>
+      <c r="N42" s="99"/>
+      <c r="O42" s="99"/>
+      <c r="P42" s="99"/>
+      <c r="Q42" s="100"/>
       <c r="R42" s="36"/>
-      <c r="S42" s="36"/>
-      <c r="T42" s="36"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="36"/>
-      <c r="W42" s="36"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="36"/>
-      <c r="Z42" s="36"/>
-      <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
+      <c r="S42" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="T42" s="99"/>
+      <c r="U42" s="99"/>
+      <c r="V42" s="99"/>
+      <c r="W42" s="99"/>
+      <c r="X42" s="99"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="99"/>
+      <c r="AA42" s="99"/>
+      <c r="AB42" s="100"/>
       <c r="AC42" s="36"/>
       <c r="AD42" s="36"/>
       <c r="AE42" s="36"/>
@@ -10136,7 +10125,7 @@
     </row>
     <row r="44" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="96"/>
       <c r="D44" s="96"/>
@@ -10244,7 +10233,7 @@
     </row>
     <row r="47" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C47" s="36"/>
       <c r="D47" s="36"/>
@@ -10296,7 +10285,7 @@
     </row>
     <row r="48" spans="2:59" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C48" s="36"/>
       <c r="D48" s="36"/>
@@ -10348,7 +10337,7 @@
     </row>
     <row r="49" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -10400,7 +10389,7 @@
     </row>
     <row r="50" spans="2:49" ht="10" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="36"/>
@@ -11922,7 +11911,7 @@
     <mergeCell ref="R9:U11"/>
     <mergeCell ref="M9:P11"/>
     <mergeCell ref="AE16:AW16"/>
-    <mergeCell ref="H40:Q40"/>
+    <mergeCell ref="H42:Q42"/>
     <mergeCell ref="AE22:AW23"/>
     <mergeCell ref="AE26:AW27"/>
     <mergeCell ref="AB9:AE11"/>
@@ -11967,7 +11956,7 @@
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="C40:D41"/>
     <mergeCell ref="S28:AB28"/>
-    <mergeCell ref="S40:AB40"/>
+    <mergeCell ref="S42:AB42"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="B30:E32"/>
     <mergeCell ref="C33:D34"/>
@@ -11996,63 +11985,63 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -12088,7 +12077,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -12128,7 +12117,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -12168,7 +12157,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2">
         <v>10</v>
@@ -12208,7 +12197,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="2">
         <v>12</v>
@@ -12248,7 +12237,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -12288,7 +12277,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2">
         <v>10</v>
@@ -12328,7 +12317,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="2">
         <v>10</v>
@@ -12368,7 +12357,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2">
         <v>12</v>
@@ -12408,7 +12397,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <v>20</v>
@@ -12448,7 +12437,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
         <v>15</v>
@@ -12488,7 +12477,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -13012,66 +13001,66 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="L1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="T1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -13097,7 +13086,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2">
         <v>18</v>
@@ -13127,7 +13116,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2">
         <v>26</v>
@@ -13157,7 +13146,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="2">
         <v>20</v>
@@ -13187,7 +13176,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -13217,7 +13206,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -13247,7 +13236,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="2">
         <v>15</v>
@@ -13277,7 +13266,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2">
         <v>17</v>
@@ -13307,7 +13296,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="2">
         <v>6</v>
@@ -13337,7 +13326,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2">
         <v>10</v>
@@ -13367,7 +13356,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -13397,7 +13386,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -13427,7 +13416,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="2">
         <v>13</v>
@@ -13457,7 +13446,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="2">
         <v>8</v>
@@ -13487,7 +13476,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="2">
         <v>10</v>
@@ -13517,7 +13506,7 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2">
         <v>20</v>
@@ -13547,7 +13536,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2">
         <v>8</v>
@@ -13577,7 +13566,7 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2">
         <v>10</v>
@@ -13607,7 +13596,7 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -13887,50 +13876,50 @@
   <sheetData>
     <row r="1" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M1" s="9"/>
       <c r="O1" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -13953,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="8">
         <v>0</v>
@@ -13966,7 +13955,7 @@
       </c>
       <c r="M2" s="8"/>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P2" s="8">
         <v>1</v>
@@ -14002,7 +13991,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J3" s="8">
         <v>1</v>
@@ -14015,7 +14004,7 @@
       </c>
       <c r="M3" s="8"/>
       <c r="O3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P3" s="8">
         <v>1</v>
@@ -14051,7 +14040,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J4" s="8">
         <v>2</v>
@@ -14064,7 +14053,7 @@
       </c>
       <c r="M4" s="8"/>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P4" s="8">
         <v>2</v>
@@ -14100,7 +14089,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J5" s="8">
         <v>3</v>
@@ -14113,7 +14102,7 @@
       </c>
       <c r="M5" s="8"/>
       <c r="O5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P5" s="8">
         <v>3</v>
@@ -14149,7 +14138,7 @@
         <v>7</v>
       </c>
       <c r="I6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J6" s="8">
         <v>0</v>
@@ -14161,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P6" s="8">
         <v>0</v>
@@ -14197,7 +14186,7 @@
         <v>8</v>
       </c>
       <c r="I7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J7" s="8">
         <v>0</v>
@@ -14209,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P7" s="8">
         <v>0</v>
@@ -14245,7 +14234,7 @@
         <v>9</v>
       </c>
       <c r="I8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J8" s="8">
         <v>0</v>
@@ -14257,7 +14246,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P8" s="8">
         <v>0</v>
@@ -14293,7 +14282,7 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J9" s="8">
         <v>0</v>
@@ -14305,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P9" s="8">
         <v>0</v>
@@ -14341,7 +14330,7 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" s="8">
         <v>0</v>
@@ -14353,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P10" s="8">
         <v>0</v>
@@ -14465,7 +14454,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B17" s="5">
         <f>VLOOKUP(XP,A2:B15,2,TRUE)</f>
@@ -14496,31 +14485,31 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -14551,7 +14540,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="I1" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" s="121"/>
       <c r="K1" s="121"/>
@@ -14562,10 +14551,10 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="120"/>
       <c r="E2" s="2"/>
@@ -14579,18 +14568,18 @@
       <c r="N2" s="121"/>
       <c r="O2" s="11"/>
       <c r="Q2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="122">
         <f>VLOOKUP(TOTAL_XP,XP_LEVEL,2,TRUE)</f>
@@ -14602,16 +14591,16 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="I3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="J3" s="14" t="s">
-        <v>60</v>
-      </c>
       <c r="K3" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="17"/>
       <c r="R3" s="10">
@@ -14620,10 +14609,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="119" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C4" s="120"/>
       <c r="E4" s="2"/>
@@ -14650,10 +14639,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="122" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="123"/>
       <c r="E5" s="2"/>
@@ -14664,7 +14653,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="119">
         <f>SUM(D6:E6)</f>
@@ -14682,32 +14671,32 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="I6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="L6" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="14" t="s">
-        <v>66</v>
-      </c>
       <c r="N6" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="17"/>
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="122">
         <f>SUM(D7,F7) * IF(CHARACTER_LEVEL &gt; 0, CHARACTER_LEVEL, 1)</f>
@@ -14759,7 +14748,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8" s="119">
         <f>SUM(D8:E8)</f>
@@ -14780,7 +14769,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="122">
         <f>FEAT_ARMOR</f>
@@ -14791,7 +14780,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="I9" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K9" s="16">
         <f>L4-O7</f>
@@ -14802,7 +14791,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="119">
         <f>FEAT_AURA</f>
@@ -14817,7 +14806,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="122">
         <f>D11+E11</f>
@@ -14838,7 +14827,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="119">
         <f>D12+E12</f>
@@ -15033,7 +15022,7 @@
     </row>
     <row r="43" spans="17:18" x14ac:dyDescent="0.25">
       <c r="Q43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R43" s="10">
         <f>SUBTOTAL(109,Table11[XP])</f>
@@ -15111,66 +15100,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3" t="str">
         <f>IF(C2="Yes","1d20","1d10")</f>
@@ -15213,19 +15202,19 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3" t="str">
         <f t="shared" ref="F3:F6" si="0">IF(C3="Yes","1d20","1d10")</f>
@@ -15268,19 +15257,19 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15323,22 +15312,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>5</v>
@@ -15377,19 +15366,19 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -15432,7 +15421,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(Table1[[#Totals],[Bought]:[Expert]])</f>
@@ -15457,42 +15446,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:E6">
-    <cfRule type="containsText" dxfId="288" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="287" priority="7" operator="containsText" text="1d10">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="1d10">
       <formula>NOT(ISERROR(SEARCH("1d10",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5:L6 H2:L3 I4:L4">
-    <cfRule type="cellIs" dxfId="286" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="285" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="284" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="283" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="282" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="281" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15517,7 +15506,7 @@
   <dimension ref="A1:Y44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -15532,37 +15521,37 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -15570,19 +15559,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G25" si="0">IF(C2="Yes","1d20","1d10")</f>
@@ -15610,19 +15599,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15646,22 +15635,22 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15688,19 +15677,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15727,19 +15716,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15763,22 +15752,22 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>IF(C7="Yes","1d20","1d10")</f>
@@ -15805,19 +15794,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15854,22 +15843,22 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -15906,22 +15895,22 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="str">
         <f>IF(C10="Yes","1d20","1d10")</f>
@@ -15957,22 +15946,22 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4" t="str">
         <f>IF(C11="Yes","1d20","1d10")</f>
@@ -16011,19 +16000,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16062,19 +16051,19 @@
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G13" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16113,19 +16102,19 @@
         <v>7</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16164,19 +16153,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16215,19 +16204,19 @@
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16266,19 +16255,19 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16314,22 +16303,22 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16365,22 +16354,22 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G19" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16416,22 +16405,22 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G20" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16467,22 +16456,22 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16518,22 +16507,22 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G22" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16569,22 +16558,22 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G23" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16620,22 +16609,22 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G24" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16671,22 +16660,22 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="4" t="str">
         <f t="shared" si="0"/>
@@ -16722,22 +16711,22 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="4" t="str">
         <f t="shared" ref="G26" si="1">IF(C26="Yes","1d20","1d10")</f>
@@ -16773,22 +16762,22 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G27" s="4" t="str">
         <f t="shared" ref="G27:G34" si="2">IF(C27="Yes","1d20","1d10")</f>
@@ -16824,22 +16813,22 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G28" s="4" t="str">
         <f t="shared" si="2"/>
@@ -17073,7 +17062,7 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2">
         <f>SUM(Table2[[#Totals],[Bought]:[Expert]])</f>
@@ -17239,22 +17228,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F25 C31:F34">
-    <cfRule type="containsText" dxfId="248" priority="5" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K25 H31:K34">
-    <cfRule type="cellIs" dxfId="247" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:F30">
-    <cfRule type="containsText" dxfId="246" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:K30">
-    <cfRule type="cellIs" dxfId="245" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17293,57 +17282,57 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G2" s="4" t="str">
         <f t="shared" ref="G2:G9" si="0">IF(C2="Yes","1d20","1d10")</f>
@@ -17368,22 +17357,22 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17407,22 +17396,22 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17446,22 +17435,22 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17485,22 +17474,22 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17524,22 +17513,22 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="4" t="str">
         <f>IF(C7="Yes","1d20","1d10")</f>
@@ -17563,22 +17552,22 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17604,22 +17593,22 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="4" t="str">
         <f t="shared" si="0"/>
@@ -17645,22 +17634,22 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="4" t="str">
         <f t="shared" ref="G10:G16" si="1">IF(C10="Yes","1d20","1d10")</f>
@@ -17824,7 +17813,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2">
         <f>SUM(Table217[[#Totals],[Bought]:[Expert]])</f>
@@ -17850,12 +17839,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:F16">
-    <cfRule type="containsText" dxfId="220" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:K16">
-    <cfRule type="cellIs" dxfId="219" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17891,51 +17880,51 @@
   <sheetData>
     <row r="1" spans="1:24" ht="44" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -17976,12 +17965,12 @@
         <v>5</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -18022,12 +18011,12 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
@@ -18065,12 +18054,12 @@
         <v>14</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
@@ -18094,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2">
@@ -18110,12 +18099,12 @@
         <v>9</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -18140,7 +18129,7 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2">
         <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
@@ -18155,12 +18144,12 @@
         <v>0</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
@@ -18184,7 +18173,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2">
@@ -18200,12 +18189,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -18246,12 +18235,12 @@
         <v>0</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -18276,7 +18265,7 @@
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J9" s="2">
         <f>Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]]</f>
@@ -18291,12 +18280,12 @@
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B10" s="2">
         <v>4</v>
@@ -18321,7 +18310,7 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J10" s="2">
         <f>ROUND(Table9[[#This Row],[TotalRank]] * Table9[[#This Row],[Factor]], 0)</f>
@@ -18336,12 +18325,12 @@
         <v>14</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="2">
         <v>0</v>
@@ -18382,12 +18371,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -18428,12 +18417,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2">
         <v>0</v>
@@ -18468,12 +18457,12 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
@@ -18511,12 +18500,12 @@
         <v>9</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B15" s="2">
         <v>0</v>
@@ -18776,7 +18765,7 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C1" s="124" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
@@ -18792,7 +18781,7 @@
       <c r="O1" s="124"/>
       <c r="P1" s="124"/>
       <c r="Q1" s="124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="R1" s="124"/>
       <c r="S1" s="124"/>
@@ -18803,78 +18792,78 @@
     </row>
     <row r="2" spans="1:23" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="I2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="20" t="s">
+      <c r="K2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="P2" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="V2" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -18934,13 +18923,13 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -18997,18 +18986,18 @@
         <v>0</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -19065,18 +19054,18 @@
         <v>0</v>
       </c>
       <c r="V5" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -19133,18 +19122,18 @@
         <v>0</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -19201,18 +19190,18 @@
         <v>0</v>
       </c>
       <c r="V7" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -19269,18 +19258,18 @@
         <v>0</v>
       </c>
       <c r="V8" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -19337,15 +19326,15 @@
         <v>0</v>
       </c>
       <c r="V9" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -19405,10 +19394,10 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -19468,10 +19457,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -19531,10 +19520,10 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -19594,10 +19583,10 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>0</v>
@@ -19657,10 +19646,10 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -19720,10 +19709,10 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -19783,10 +19772,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -19846,10 +19835,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -19909,10 +19898,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -19972,10 +19961,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>0</v>
@@ -20035,10 +20024,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -20098,7 +20087,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
@@ -20179,27 +20168,27 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25" s="2">
         <f>VLOOKUP($B$25,ARMOR_TYPE,2,FALSE)</f>
@@ -20219,10 +20208,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2">
         <f>VLOOKUP($B$26,SHIELD_TYPE,2,FALSE)</f>
@@ -20243,7 +20232,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="75" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="76">
@@ -20324,12 +20313,12 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="C1" s="124" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D1" s="124"/>
       <c r="E1" s="124"/>
       <c r="F1" s="124" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G1" s="124"/>
       <c r="H1" s="124"/>
@@ -20344,7 +20333,7 @@
       <c r="Q1" s="124"/>
       <c r="R1" s="124"/>
       <c r="S1" s="124" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T1" s="124"/>
       <c r="U1" s="124"/>
@@ -20353,96 +20342,96 @@
     </row>
     <row r="2" spans="1:29" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="20" t="s">
+      <c r="O2" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="S2" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="M2" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="O2" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="P2" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="T2" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="V2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="21" t="s">
+      <c r="X2" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="X2" s="21" t="s">
+      <c r="Y2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="Y2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="21" t="s">
-        <v>39</v>
-      </c>
       <c r="AA2" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -20518,18 +20507,18 @@
         <v>Great Axe: 2d12+2+8+5  INI:18</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -20607,13 +20596,13 @@
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -20691,13 +20680,13 @@
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -20775,13 +20764,13 @@
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -20859,13 +20848,13 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -20943,13 +20932,13 @@
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -21027,13 +21016,13 @@
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -21111,13 +21100,13 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -21195,13 +21184,13 @@
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -21279,7 +21268,7 @@
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="4"/>
@@ -21347,7 +21336,7 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="4"/>
@@ -21415,7 +21404,7 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="4"/>
@@ -21483,7 +21472,7 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="4"/>
@@ -21551,7 +21540,7 @@
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="4"/>
@@ -21619,7 +21608,7 @@
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="4"/>
@@ -21687,7 +21676,7 @@
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="4"/>
@@ -21755,7 +21744,7 @@
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="4"/>
@@ -21823,7 +21812,7 @@
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="4"/>
@@ -22062,33 +22051,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>227</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>228</v>
       </c>
       <c r="C2" s="82">
         <v>1</v>
@@ -22097,21 +22086,21 @@
         <v>1</v>
       </c>
       <c r="E2" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="82">
         <v>2</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C3" s="82">
         <v>1</v>
@@ -22120,21 +22109,21 @@
         <v>1</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="82">
         <v>2</v>
       </c>
       <c r="G3" s="80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="82">
         <v>1</v>
@@ -22143,21 +22132,21 @@
         <v>1</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="82">
         <v>0</v>
       </c>
       <c r="G4" s="80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="82">
         <v>2</v>
@@ -22166,21 +22155,21 @@
         <v>2</v>
       </c>
       <c r="E5" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="82">
         <v>3</v>
       </c>
       <c r="G5" s="80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B6" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C6" s="82">
         <v>3</v>
@@ -22189,21 +22178,21 @@
         <v>3</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="82">
         <v>4</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="81" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="82">
         <v>4</v>
@@ -22212,21 +22201,21 @@
         <v>5</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="82">
         <v>5</v>
       </c>
       <c r="G7" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="82">
         <v>1</v>
@@ -22235,21 +22224,21 @@
         <v>1</v>
       </c>
       <c r="E8" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="82">
         <v>0</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C9" s="82">
         <v>2</v>
@@ -22258,21 +22247,21 @@
         <v>3</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="82">
         <v>3</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C10" s="82">
         <v>3</v>
@@ -22281,21 +22270,21 @@
         <v>5</v>
       </c>
       <c r="E10" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="82">
         <v>4</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B11" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="82">
         <v>4</v>
@@ -22304,21 +22293,21 @@
         <v>7</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="82">
         <v>5</v>
       </c>
       <c r="G11" s="80" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="82">
         <v>5</v>
@@ -22327,21 +22316,21 @@
         <v>9</v>
       </c>
       <c r="E12" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="82">
         <v>6</v>
       </c>
       <c r="G12" s="80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="82">
         <v>1</v>
@@ -22350,21 +22339,21 @@
         <v>1</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="82">
         <v>2</v>
       </c>
       <c r="G13" s="80" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="82">
         <v>2</v>
@@ -22373,21 +22362,21 @@
         <v>3</v>
       </c>
       <c r="E14" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="82">
         <v>3</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="82">
         <v>3</v>
@@ -22396,21 +22385,21 @@
         <v>4</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15" s="82">
         <v>4</v>
       </c>
       <c r="G15" s="80" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B16" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="82">
         <v>4</v>
@@ -22419,21 +22408,21 @@
         <v>5</v>
       </c>
       <c r="E16" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="82">
         <v>5</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B17" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="82">
         <v>5</v>
@@ -22442,21 +22431,21 @@
         <v>8</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="82">
         <v>6</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="81" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="82">
         <v>1</v>
@@ -22465,21 +22454,21 @@
         <v>1</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="82">
         <v>0</v>
       </c>
       <c r="G18" s="80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="82">
         <v>1</v>
@@ -22488,21 +22477,21 @@
         <v>1</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="82">
         <v>0</v>
       </c>
       <c r="G19" s="80" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C20" s="82">
         <v>2</v>
@@ -22511,21 +22500,21 @@
         <v>3</v>
       </c>
       <c r="E20" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F20" s="82">
         <v>3</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B21" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C21" s="82">
         <v>3</v>
@@ -22534,21 +22523,21 @@
         <v>4</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F21" s="82">
         <v>4</v>
       </c>
       <c r="G21" s="80" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="82">
         <v>4</v>
@@ -22557,21 +22546,21 @@
         <v>7</v>
       </c>
       <c r="E22" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22" s="82">
         <v>5</v>
       </c>
       <c r="G22" s="80" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B23" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="82">
         <v>5</v>
@@ -22580,21 +22569,21 @@
         <v>9</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23" s="82">
         <v>6</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B24" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C24" s="82">
         <v>1</v>
@@ -22603,21 +22592,21 @@
         <v>1</v>
       </c>
       <c r="E24" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="82">
         <v>2</v>
       </c>
       <c r="G24" s="80" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B25" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C25" s="82">
         <v>2</v>
@@ -22626,21 +22615,21 @@
         <v>5</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="82">
         <v>3</v>
       </c>
       <c r="G25" s="80" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C26" s="82">
         <v>3</v>
@@ -22649,21 +22638,21 @@
         <v>10</v>
       </c>
       <c r="E26" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="82">
         <v>4</v>
       </c>
       <c r="G26" s="80" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C27" s="82">
         <v>1</v>
@@ -22672,21 +22661,21 @@
         <v>1</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" s="82">
         <v>0</v>
       </c>
       <c r="G27" s="80" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C28" s="82">
         <v>2</v>
@@ -22695,21 +22684,21 @@
         <v>3</v>
       </c>
       <c r="E28" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28" s="82">
         <v>3</v>
       </c>
       <c r="G28" s="80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="82">
         <v>3</v>
@@ -22718,21 +22707,21 @@
         <v>5</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" s="82">
         <v>4</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="81" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B30" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="82">
         <v>4</v>
@@ -22741,21 +22730,21 @@
         <v>8</v>
       </c>
       <c r="E30" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="82">
         <v>5</v>
       </c>
       <c r="G30" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="81" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B31" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C31" s="82">
         <v>1</v>
@@ -22764,21 +22753,21 @@
         <v>1</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="82">
         <v>2</v>
       </c>
       <c r="G31" s="80" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="81" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C32" s="82">
         <v>1</v>
@@ -22787,21 +22776,21 @@
         <v>3</v>
       </c>
       <c r="E32" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="82">
         <v>3</v>
       </c>
       <c r="G32" s="80" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="82">
         <v>1</v>
@@ -22810,21 +22799,21 @@
         <v>1</v>
       </c>
       <c r="E33" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="82">
         <v>3</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C34" s="82">
         <v>1</v>
@@ -22833,21 +22822,21 @@
         <v>1</v>
       </c>
       <c r="E34" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34" s="82">
         <v>2</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B35" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="82">
         <v>2</v>
@@ -22856,21 +22845,21 @@
         <v>3</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35" s="82">
         <v>3</v>
       </c>
       <c r="G35" s="80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B36" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C36" s="82">
         <v>3</v>
@@ -22879,21 +22868,21 @@
         <v>5</v>
       </c>
       <c r="E36" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36" s="82">
         <v>4</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B37" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" s="82">
         <v>4</v>
@@ -22902,21 +22891,21 @@
         <v>7</v>
       </c>
       <c r="E37" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37" s="82">
         <v>5</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B38" s="81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="82">
         <v>5</v>
@@ -22925,18 +22914,18 @@
         <v>10</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38" s="82">
         <v>6</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="8">
         <f>SUMIF(Table18[Enabled],"=Yes",Table18[XP])</f>
